--- a/data/iartypre01.xlsx
+++ b/data/iartypre01.xlsx
@@ -56,114 +56,114 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.65371847316704457</v>
+        <v>0.95039812126934786</v>
       </c>
       <c r="B1">
-        <v>0.65561125981887791</v>
+        <v>0.92007934294392268</v>
       </c>
       <c r="C1">
-        <v>0.34628152683295543</v>
+        <v>0.049601878730652173</v>
       </c>
       <c r="D1">
-        <v>0.34438874018112209</v>
+        <v>0.079920657056077399</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.026875446827409555</v>
+        <v>0.0046846366374542732</v>
       </c>
       <c r="B2">
-        <v>0.021790285426055718</v>
+        <v>0.0059872422700032795</v>
       </c>
       <c r="C2">
-        <v>0.026875446827409555</v>
+        <v>0.0046846366374542732</v>
       </c>
       <c r="D2">
-        <v>0.021790285426055718</v>
+        <v>0.0059872422700032795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>24.324003889689173</v>
+        <v>202.87552585632628</v>
       </c>
       <c r="B3">
-        <v>30.087318591748744</v>
+        <v>153.67331092540184</v>
       </c>
       <c r="C3">
-        <v>12.884679799250522</v>
+        <v>10.588201939522644</v>
       </c>
       <c r="D3">
-        <v>15.804691560823683</v>
+        <v>13.348492252683409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>7.6561615065822929e-98</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>7.1617941461953223e-133</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.3445910487664394e-34</v>
+        <v>6.910299294616856e-26</v>
       </c>
       <c r="D4">
-        <v>4.6597017318724771e-49</v>
+        <v>7.1476144808325268e-40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.60096222522277165</v>
+        <v>0.94121387461394501</v>
       </c>
       <c r="B5">
-        <v>0.61283713561190645</v>
+        <v>0.90834133335023814</v>
       </c>
       <c r="C5">
-        <v>0.29352527888868246</v>
+        <v>0.040417632075249302</v>
       </c>
       <c r="D5">
-        <v>0.30161461597415062</v>
+        <v>0.068182647462392859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.70647472111131748</v>
+        <v>0.95958236792475071</v>
       </c>
       <c r="B6">
-        <v>0.69838538402584938</v>
+        <v>0.93181735253760722</v>
       </c>
       <c r="C6">
-        <v>0.3990377747772284</v>
+        <v>0.058786125386055044</v>
       </c>
       <c r="D6">
-        <v>0.38716286438809355</v>
+        <v>0.091658666649761938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B7">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C7">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D7">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B8">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C8">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D8">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="9">
@@ -182,114 +182,114 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.5454042781557068</v>
+        <v>0.93303919398827051</v>
       </c>
       <c r="B11">
-        <v>0.49987967774295106</v>
+        <v>0.88372075192773514</v>
       </c>
       <c r="C11">
-        <v>0.45459572184429325</v>
+        <v>0.066960806011729268</v>
       </c>
       <c r="D11">
-        <v>0.50012032225704894</v>
+        <v>0.11627924807226483</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.027728317734214251</v>
+        <v>0.005333392591233427</v>
       </c>
       <c r="B12">
-        <v>0.022728866875745792</v>
+        <v>0.0068554822497996016</v>
       </c>
       <c r="C12">
-        <v>0.027728317734214251</v>
+        <v>0.005333392591233427</v>
       </c>
       <c r="D12">
-        <v>0.022728866875745792</v>
+        <v>0.0068554822497996016</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>19.669576906309285</v>
+        <v>174.94290510732705</v>
       </c>
       <c r="B13">
-        <v>21.993163164520876</v>
+        <v>128.90716068203196</v>
       </c>
       <c r="C13">
-        <v>16.394637648116785</v>
+        <v>12.555011630269576</v>
       </c>
       <c r="D13">
-        <v>22.003750780498983</v>
+        <v>16.961497942127103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2.464395100788132e-70</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>6.7727361851679665e-84</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>3.5949458504723227e-52</v>
+        <v>1.5086787572461064e-35</v>
       </c>
       <c r="D14">
-        <v>5.862187922009054e-84</v>
+        <v>1.4839505636415122e-62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.49097385268751048</v>
+        <v>0.9225830589966344</v>
       </c>
       <c r="B15">
-        <v>0.45526312702699057</v>
+        <v>0.87028055479045818</v>
       </c>
       <c r="C15">
-        <v>0.40016529637609699</v>
+        <v>0.056504671020093176</v>
       </c>
       <c r="D15">
-        <v>0.45550377154108845</v>
+        <v>0.10283905093498785</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.59983470362390312</v>
+        <v>0.94349532897990662</v>
       </c>
       <c r="B16">
-        <v>0.54449622845891155</v>
+        <v>0.89716094906501209</v>
       </c>
       <c r="C16">
-        <v>0.50902614731248952</v>
+        <v>0.077416941003365367</v>
       </c>
       <c r="D16">
-        <v>0.54473687297300943</v>
+        <v>0.12971944520954182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B17">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C17">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D17">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B18">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C18">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D18">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="19">
@@ -308,114 +308,114 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.80087724867724863</v>
+        <v>0.9717205101295342</v>
       </c>
       <c r="B21">
-        <v>0.84450906243817092</v>
+        <v>0.96379174685255331</v>
       </c>
       <c r="C21">
-        <v>0.19912275132275131</v>
+        <v>0.028279489870465802</v>
       </c>
       <c r="D21">
-        <v>0.155490937561829</v>
+        <v>0.036208253147446821</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.022748958443303401</v>
+        <v>0.0035725436101802046</v>
       </c>
       <c r="B22">
-        <v>0.016752986864354988</v>
+        <v>0.0041904330627424999</v>
       </c>
       <c r="C22">
-        <v>0.022748958443303401</v>
+        <v>0.0035725436101802046</v>
       </c>
       <c r="D22">
-        <v>0.016752986864354988</v>
+        <v>0.0041904330627424999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>35.205007326961926</v>
+        <v>271.99682247700235</v>
       </c>
       <c r="B23">
-        <v>50.409462460393662</v>
+        <v>229.99812487680771</v>
       </c>
       <c r="C23">
-        <v>8.7530491481189969</v>
+        <v>7.9157857695232838</v>
       </c>
       <c r="D23">
-        <v>9.2813859893046367</v>
+        <v>8.640694793427798</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1.1903274141852566e-163</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>2.4409097228140479e-248</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.2591955176450561e-17</v>
+        <v>3.0864904511068461e-15</v>
       </c>
       <c r="D24">
-        <v>1.5955463560254566e-19</v>
+        <v>7.707352943531171e-18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.75622125840419108</v>
+        <v>0.96471652577763178</v>
       </c>
       <c r="B25">
-        <v>0.8116231076669308</v>
+        <v>0.95557638804895217</v>
       </c>
       <c r="C25">
-        <v>0.15446676104969376</v>
+        <v>0.02127550551856339</v>
       </c>
       <c r="D25">
-        <v>0.12260498279058886</v>
+        <v>0.027992894343845678</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.84553323895030619</v>
+        <v>0.97872449448143661</v>
       </c>
       <c r="B26">
-        <v>0.87739501720941104</v>
+        <v>0.97200710565615445</v>
       </c>
       <c r="C26">
-        <v>0.24377874159580887</v>
+        <v>0.035283474222368209</v>
       </c>
       <c r="D26">
-        <v>0.18837689233306915</v>
+        <v>0.044423611951047964</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B27">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C27">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D27">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B28">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C28">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D28">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="29">
@@ -434,162 +434,162 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.50632911392405067</v>
+        <v>0.97966631908237756</v>
       </c>
       <c r="B31">
-        <v>0.64217252396166136</v>
+        <v>0.91830780452224658</v>
       </c>
       <c r="C31">
-        <v>0.6994949494949495</v>
+        <v>0.89298561151079137</v>
       </c>
       <c r="D31">
-        <v>0.49367088607594944</v>
+        <v>0.020333680917622523</v>
       </c>
       <c r="E31">
-        <v>0.35782747603833864</v>
+        <v>0.081692195477753471</v>
       </c>
       <c r="F31">
-        <v>0.3005050505050505</v>
+        <v>0.10701438848920863</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.056249888024297701</v>
+        <v>0.0032227215956044299</v>
       </c>
       <c r="B32">
-        <v>0.027095085995085113</v>
+        <v>0.0073971716101911946</v>
       </c>
       <c r="C32">
-        <v>0.023039369309878877</v>
+        <v>0.0092702388517365564</v>
       </c>
       <c r="D32">
-        <v>0.056249888024297701</v>
+        <v>0.0032227215956044299</v>
       </c>
       <c r="E32">
-        <v>0.027095085995085113</v>
+        <v>0.0073971716101911946</v>
       </c>
       <c r="F32">
-        <v>0.023039369309878877</v>
+        <v>0.0092702388517365564</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>9.0014243887087702</v>
+        <v>303.9872635658553</v>
       </c>
       <c r="B33">
-        <v>23.700700712968676</v>
+        <v>124.14309859420864</v>
       </c>
       <c r="C33">
-        <v>30.360854938638376</v>
+        <v>96.328220425896788</v>
       </c>
       <c r="D33">
-        <v>8.776388778991052</v>
+        <v>6.3094748691156761</v>
       </c>
       <c r="E33">
-        <v>13.206360596281053</v>
+        <v>11.043706944043977</v>
       </c>
       <c r="F33">
-        <v>13.043110966418652</v>
+        <v>11.543865287695587</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1.6563128348256752e-18</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>4.3437346875521443e-94</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1.5623724587991274e-134</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1.0426666324398547e-17</v>
+        <v>3.0758028234298432e-10</v>
       </c>
       <c r="E34">
-        <v>4.1893129151228452e-36</v>
+        <v>5.4675474515191254e-28</v>
       </c>
       <c r="F34">
-        <v>2.4523616585447952e-35</v>
+        <v>2.1645663429206975e-30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.39591111572277304</v>
+        <v>0.97334816202424357</v>
       </c>
       <c r="B35">
-        <v>0.58898512640850642</v>
+        <v>0.90380562348280991</v>
       </c>
       <c r="C35">
-        <v>0.65426888543740169</v>
+        <v>0.87481127553601357</v>
       </c>
       <c r="D35">
-        <v>0.38325288787467182</v>
+        <v>0.014015523859488576</v>
       </c>
       <c r="E35">
-        <v>0.30464007848518371</v>
+        <v>0.067190014438316834</v>
       </c>
       <c r="F35">
-        <v>0.25527898644750274</v>
+        <v>0.088840052514430848</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.61674711212532829</v>
+        <v>0.98598447614051155</v>
       </c>
       <c r="B36">
-        <v>0.69535992151481629</v>
+        <v>0.93280998556168326</v>
       </c>
       <c r="C36">
-        <v>0.74472101355249731</v>
+        <v>0.91115994748556917</v>
       </c>
       <c r="D36">
-        <v>0.60408888427722707</v>
+        <v>0.02665183797575647</v>
       </c>
       <c r="E36">
-        <v>0.41101487359149358</v>
+        <v>0.096194376517190108</v>
       </c>
       <c r="F36">
-        <v>0.34573111456259825</v>
+        <v>0.12518872446398643</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B37">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C37">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D37">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E37">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F37">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B38">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C38">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D38">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E38">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F38">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="39">
@@ -614,162 +614,162 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.73417721518987344</v>
+        <v>0.98905109489051102</v>
       </c>
       <c r="B41">
-        <v>0.53993610223642174</v>
+        <v>0.89496717724288843</v>
       </c>
       <c r="C41">
-        <v>0.44696969696969696</v>
+        <v>0.80305755395683465</v>
       </c>
       <c r="D41">
-        <v>0.26582278481012656</v>
+        <v>0.010948905109489052</v>
       </c>
       <c r="E41">
-        <v>0.4600638977635782</v>
+        <v>0.10503282275711159</v>
       </c>
       <c r="F41">
-        <v>0.55303030303030298</v>
+        <v>0.19694244604316546</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.049703046271657017</v>
+        <v>0.0023761311544143212</v>
       </c>
       <c r="B42">
-        <v>0.028171378068785471</v>
+        <v>0.0082803242791773084</v>
       </c>
       <c r="C42">
-        <v>0.02498422668872546</v>
+        <v>0.011925884692976122</v>
       </c>
       <c r="D42">
-        <v>0.049703046271657017</v>
+        <v>0.0023761311544143212</v>
       </c>
       <c r="E42">
-        <v>0.028171378068785471</v>
+        <v>0.0082803242791773084</v>
       </c>
       <c r="F42">
-        <v>0.02498422668872546</v>
+        <v>0.011925884692976122</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>14.771271989591016</v>
+        <v>416.24431928055606</v>
       </c>
       <c r="B43">
-        <v>19.166123180700318</v>
+        <v>108.0835903363688</v>
       </c>
       <c r="C43">
-        <v>17.890075307850104</v>
+        <v>67.337356903157385</v>
       </c>
       <c r="D43">
-        <v>5.3482191686450218</v>
+        <v>4.6078706931426874</v>
       </c>
       <c r="E43">
-        <v>16.330897858111509</v>
+        <v>12.684626738742548</v>
       </c>
       <c r="F43">
-        <v>22.135177923272163</v>
+        <v>16.513864682857182</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>9.4838965469974233e-44</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>1.8503020697153217e-67</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>2.6928378080969496e-60</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1.1659396198728948e-07</v>
+        <v>4.1832808544891747e-06</v>
       </c>
       <c r="E44">
-        <v>7.8468587751142049e-52</v>
+        <v>3.0816869109199115e-36</v>
       </c>
       <c r="F44">
-        <v>9.7523999019654157e-85</v>
+        <v>1.7428214633923556e-59</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.63661060543144699</v>
+        <v>0.98439268137915115</v>
       </c>
       <c r="B45">
-        <v>0.4846359535217612</v>
+        <v>0.87873357228008997</v>
       </c>
       <c r="C45">
-        <v>0.39792589627120761</v>
+        <v>0.77967681494103191</v>
       </c>
       <c r="D45">
-        <v>0.16825617505170004</v>
+        <v>0.0062904915981292142</v>
       </c>
       <c r="E45">
-        <v>0.40476374904891765</v>
+        <v>0.088799217794313087</v>
       </c>
       <c r="F45">
-        <v>0.50398650233181364</v>
+        <v>0.17356170702736268</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.8317438249482999</v>
+        <v>0.99370950840187089</v>
       </c>
       <c r="B46">
-        <v>0.59523625095108224</v>
+        <v>0.9112007822056869</v>
       </c>
       <c r="C46">
-        <v>0.49601349766818631</v>
+        <v>0.82643829297263738</v>
       </c>
       <c r="D46">
-        <v>0.36338939456855307</v>
+        <v>0.015607318620848888</v>
       </c>
       <c r="E46">
-        <v>0.51536404647823875</v>
+        <v>0.1212664277199101</v>
       </c>
       <c r="F46">
-        <v>0.60207410372879233</v>
+        <v>0.22032318505896825</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B47">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C47">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D47">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E47">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F47">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B48">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C48">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D48">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E48">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F48">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="49">
@@ -794,162 +794,162 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.759493670886076</v>
+        <v>0.99009384775808118</v>
       </c>
       <c r="B51">
-        <v>0.8178913738019169</v>
+        <v>0.95842450765864329</v>
       </c>
       <c r="C51">
-        <v>0.85353535353535348</v>
+        <v>0.94784172661870492</v>
       </c>
       <c r="D51">
-        <v>0.24050632911392406</v>
+        <v>0.0099061522419186653</v>
       </c>
       <c r="E51">
-        <v>0.18210862619808307</v>
+        <v>0.041575492341356671</v>
       </c>
       <c r="F51">
-        <v>0.14646464646464646</v>
+        <v>0.052158273381294959</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.048085240079936968</v>
+        <v>0.0022613426748865489</v>
       </c>
       <c r="B52">
-        <v>0.021814281049512593</v>
+        <v>0.0053911191241335409</v>
       </c>
       <c r="C52">
-        <v>0.017767632712993021</v>
+        <v>0.0066677164273366528</v>
       </c>
       <c r="D52">
-        <v>0.048085240079936968</v>
+        <v>0.0022613426748865489</v>
       </c>
       <c r="E52">
-        <v>0.021814281049512593</v>
+        <v>0.0053911191241335409</v>
       </c>
       <c r="F52">
-        <v>0.017767632712993021</v>
+        <v>0.0066677164273366528</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>15.794735965204556</v>
+        <v>437.83450370154713</v>
       </c>
       <c r="B53">
-        <v>37.493391230521048</v>
+        <v>177.7783954667633</v>
       </c>
       <c r="C53">
-        <v>48.038777440012289</v>
+        <v>142.1538748607685</v>
       </c>
       <c r="D53">
-        <v>5.0016663889814419</v>
+        <v>4.3806506426168488</v>
       </c>
       <c r="E53">
-        <v>8.3481378911707029</v>
+        <v>7.7118482051792299</v>
       </c>
       <c r="F53">
-        <v>8.2433405074577308</v>
+        <v>7.8225092428126874</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>5.2528399843430249e-49</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>4.0094309715711351e-177</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>6.2251727570169986e-236</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>7.016171935216412e-07</v>
+        <v>1.2107966520972856e-05</v>
       </c>
       <c r="E54">
-        <v>3.1177632895653481e-16</v>
+        <v>1.5236500682676481e-14</v>
       </c>
       <c r="F54">
-        <v>7.0124384239630633e-16</v>
+        <v>6.4377802021252649e-15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.66510279938138961</v>
+        <v>0.98566047746581609</v>
       </c>
       <c r="B55">
-        <v>0.77507014641304128</v>
+        <v>0.94785519959559394</v>
       </c>
       <c r="C55">
-        <v>0.81865765855937811</v>
+        <v>0.93476964503881543</v>
       </c>
       <c r="D55">
-        <v>0.14611545760923766</v>
+        <v>0.0054727819496535376</v>
       </c>
       <c r="E55">
-        <v>0.13928739880920743</v>
+        <v>0.0310061842783073</v>
       </c>
       <c r="F55">
-        <v>0.11158695148867109</v>
+        <v>0.039086191801405462</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.85388454239076239</v>
+        <v>0.99452721805034627</v>
       </c>
       <c r="B56">
-        <v>0.86071260119079251</v>
+        <v>0.96899381572169263</v>
       </c>
       <c r="C56">
-        <v>0.88841304851132885</v>
+        <v>0.9609138081985944</v>
       </c>
       <c r="D56">
-        <v>0.33489720061861045</v>
+        <v>0.014339522534183793</v>
       </c>
       <c r="E56">
-        <v>0.22492985358695872</v>
+        <v>0.052144800404406041</v>
       </c>
       <c r="F56">
-        <v>0.18134234144062183</v>
+        <v>0.065230354961184456</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B57">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C57">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D57">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E57">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F57">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B58">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C58">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D58">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E58">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F58">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="59">
@@ -974,258 +974,258 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.75512175837980156</v>
+        <v>0.94901897841489369</v>
       </c>
       <c r="B61">
-        <v>0.35478706467661691</v>
+        <v>0.8814857644140689</v>
       </c>
       <c r="C61">
-        <v>0.54611142857142858</v>
+        <v>0.93837580357142847</v>
       </c>
       <c r="D61">
-        <v>0.53882397147147154</v>
+        <v>0.93969721682598961</v>
       </c>
       <c r="E61">
-        <v>0.54466307692307692</v>
+        <v>0.93346747899159666</v>
       </c>
       <c r="F61">
-        <v>0.2448782416201985</v>
+        <v>0.050981021585106381</v>
       </c>
       <c r="G61">
-        <v>0.64521293532338309</v>
+        <v>0.11851423558593113</v>
       </c>
       <c r="H61">
-        <v>0.45388857142857136</v>
+        <v>0.061624196428571434</v>
       </c>
       <c r="I61">
-        <v>0.46117602852852857</v>
+        <v>0.060302783174010346</v>
       </c>
       <c r="J61">
-        <v>0.45533692307692314</v>
+        <v>0.066532521008403359</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.019153694078114968</v>
+        <v>0.0045167241856452905</v>
       </c>
       <c r="B62">
-        <v>0.041994384473734769</v>
+        <v>0.011891149233576764</v>
       </c>
       <c r="C62">
-        <v>0.10624621057402993</v>
+        <v>0.018126159952335828</v>
       </c>
       <c r="D62">
-        <v>0.0506433434860541</v>
+        <v>0.0092453186067585971</v>
       </c>
       <c r="E62">
-        <v>0.11734133157519466</v>
+        <v>0.023161269621260965</v>
       </c>
       <c r="F62">
-        <v>0.019153694078114968</v>
+        <v>0.0045167241856452905</v>
       </c>
       <c r="G62">
-        <v>0.041994384473734769</v>
+        <v>0.011891149233576764</v>
       </c>
       <c r="H62">
-        <v>0.10624621057402993</v>
+        <v>0.018126159952335828</v>
       </c>
       <c r="I62">
-        <v>0.0506433434860541</v>
+        <v>0.0092453186067585971</v>
       </c>
       <c r="J62">
-        <v>0.11734133157519466</v>
+        <v>0.023161269621260965</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>39.424340563244378</v>
+        <v>210.11222722675731</v>
       </c>
       <c r="B63">
-        <v>8.4484406456419698</v>
+        <v>74.129568732098477</v>
       </c>
       <c r="C63">
-        <v>5.1400555899441764</v>
+        <v>51.769145038936095</v>
       </c>
       <c r="D63">
-        <v>10.639581322663858</v>
+        <v>101.64032812660925</v>
       </c>
       <c r="E63">
-        <v>4.641698450251913</v>
+        <v>40.302949460711645</v>
       </c>
       <c r="F63">
-        <v>12.784909303735651</v>
+        <v>11.287167311905028</v>
       </c>
       <c r="G63">
-        <v>15.364266994481824</v>
+        <v>9.9665922324215064</v>
       </c>
       <c r="H63">
-        <v>4.2720448002454843</v>
+        <v>3.399738090727277</v>
       </c>
       <c r="I63">
-        <v>9.1063503470209231</v>
+        <v>6.5225208279925857</v>
       </c>
       <c r="J63">
-        <v>3.8804478947397505</v>
+        <v>2.872576594304209</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>2.5931785465872183e-188</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>1.424113475331633e-16</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>3.4697919096416995e-07</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>8.6627373040541374e-25</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>4.049031002535696e-06</v>
+        <v>1.5167282798318836e-302</v>
       </c>
       <c r="F64">
-        <v>3.8994958302093852e-34</v>
+        <v>3.8081551814282064e-29</v>
       </c>
       <c r="G64">
-        <v>8.9973482349524484e-47</v>
+        <v>3.7502140760208386e-23</v>
       </c>
       <c r="H64">
-        <v>2.1745279334798682e-05</v>
+        <v>0.00068050706874309196</v>
       </c>
       <c r="I64">
-        <v>6.9364332918680993e-19</v>
+        <v>7.6942497269073098e-11</v>
       </c>
       <c r="J64">
-        <v>0.00011301524034049866</v>
+        <v>0.0040908832784983216</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.71752323805294216</v>
+        <v>0.94016392471366739</v>
       </c>
       <c r="B65">
-        <v>0.27235248512186944</v>
+        <v>0.85817312438896731</v>
       </c>
       <c r="C65">
-        <v>0.33755112205156024</v>
+        <v>0.90283940303471499</v>
       </c>
       <c r="D65">
-        <v>0.43941156717416319</v>
+        <v>0.9215717370794112</v>
       </c>
       <c r="E65">
-        <v>0.31432315281143008</v>
+        <v>0.88805972818479217</v>
       </c>
       <c r="F65">
-        <v>0.20727972129333913</v>
+        <v>0.042125967883880032</v>
       </c>
       <c r="G65">
-        <v>0.56277835576863566</v>
+        <v>0.095201595560829536</v>
       </c>
       <c r="H65">
-        <v>0.24532826490870305</v>
+        <v>0.026087795891857911</v>
       </c>
       <c r="I65">
-        <v>0.36176362423122022</v>
+        <v>0.042177303427431936</v>
       </c>
       <c r="J65">
-        <v>0.22499699896527631</v>
+        <v>0.02112477020159885</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.79272027870666095</v>
+        <v>0.95787403211611999</v>
       </c>
       <c r="B66">
-        <v>0.43722164423136439</v>
+        <v>0.90479840443917048</v>
       </c>
       <c r="C66">
-        <v>0.75467173509129692</v>
+        <v>0.97391220410814194</v>
       </c>
       <c r="D66">
-        <v>0.6382363757687799</v>
+        <v>0.95782269657256802</v>
       </c>
       <c r="E66">
-        <v>0.77500300103472375</v>
+        <v>0.97887522979840114</v>
       </c>
       <c r="F66">
-        <v>0.28247676194705784</v>
+        <v>0.059836075286332731</v>
       </c>
       <c r="G66">
-        <v>0.72764751487813051</v>
+        <v>0.14182687561103274</v>
       </c>
       <c r="H66">
-        <v>0.66244887794843965</v>
+        <v>0.097160596965284951</v>
       </c>
       <c r="I66">
-        <v>0.56058843282583692</v>
+        <v>0.078428262920588757</v>
       </c>
       <c r="J66">
-        <v>0.68567684718856992</v>
+        <v>0.11194027181520787</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B67">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C67">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D67">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E67">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F67">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="G67">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="H67">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="I67">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="J67">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B68">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C68">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D68">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E68">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F68">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="G68">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="H68">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="I68">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="J68">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="69">
@@ -1262,258 +1262,258 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.43869943793382971</v>
+        <v>0.88394524743312619</v>
       </c>
       <c r="B71">
-        <v>0.73227217039800996</v>
+        <v>0.95024110033905274</v>
       </c>
       <c r="C71">
-        <v>0.47454857142857143</v>
+        <v>0.93793482142857143</v>
       </c>
       <c r="D71">
-        <v>0.67056300300300298</v>
+        <v>0.95110361842105262</v>
       </c>
       <c r="E71">
-        <v>0.55498307692307691</v>
+        <v>0.92692676470588231</v>
       </c>
       <c r="F71">
-        <v>0.56130056206617029</v>
+        <v>0.11605475256687384</v>
       </c>
       <c r="G71">
-        <v>0.26772782960199004</v>
+        <v>0.049758899660947417</v>
       </c>
       <c r="H71">
-        <v>0.52545142857142857</v>
+        <v>0.06206517857142857</v>
       </c>
       <c r="I71">
-        <v>0.32943699699699697</v>
+        <v>0.048896381578947372</v>
       </c>
       <c r="J71">
-        <v>0.44501692307692309</v>
+        <v>0.073073235294117661</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.021731393639089817</v>
+        <v>0.0063141545790813885</v>
       </c>
       <c r="B72">
-        <v>0.038949883159067687</v>
+        <v>0.0081083071476414151</v>
       </c>
       <c r="C72">
-        <v>0.10543966531311215</v>
+        <v>0.018692388072103921</v>
       </c>
       <c r="D72">
-        <v>0.048201024123496153</v>
+        <v>0.0085738236817072006</v>
       </c>
       <c r="E72">
-        <v>0.11734133157519466</v>
+        <v>0.024799802128315174</v>
       </c>
       <c r="F72">
-        <v>0.021731393639089817</v>
+        <v>0.0063141545790813885</v>
       </c>
       <c r="G72">
-        <v>0.038949883159067687</v>
+        <v>0.0081083071476414151</v>
       </c>
       <c r="H72">
-        <v>0.10543966531311215</v>
+        <v>0.018692388072103921</v>
       </c>
       <c r="I72">
-        <v>0.048201024123496153</v>
+        <v>0.0085738236817072006</v>
       </c>
       <c r="J72">
-        <v>0.11734133157519466</v>
+        <v>0.024799802128315174</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>20.187358676560418</v>
+        <v>139.99423618192864</v>
       </c>
       <c r="B73">
-        <v>18.800368858809634</v>
+        <v>117.19352548398017</v>
       </c>
       <c r="C73">
-        <v>4.5006646219841331</v>
+        <v>50.17736726899669</v>
       </c>
       <c r="D73">
-        <v>13.911799908751922</v>
+        <v>110.93109139278113</v>
       </c>
       <c r="E73">
-        <v>4.7296470005322266</v>
+        <v>37.376377436800745</v>
       </c>
       <c r="F73">
-        <v>25.829018211538845</v>
+        <v>18.380093663110479</v>
       </c>
       <c r="G73">
-        <v>6.8736491072030841</v>
+        <v>6.1367803112171861</v>
       </c>
       <c r="H73">
-        <v>4.9834322501978301</v>
+        <v>3.3203450694485195</v>
       </c>
       <c r="I73">
-        <v>6.8346472505012406</v>
+        <v>5.7029842686491117</v>
       </c>
       <c r="J73">
-        <v>3.7924993444594359</v>
+        <v>2.9465249325794538</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>2.5618404842769815e-73</v>
+        <v>0</v>
       </c>
       <c r="B74">
-        <v>2.1855993175481169e-65</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>7.7997079364161092e-06</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>1.7321624114756875e-39</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>2.666440331434158e-06</v>
+        <v>8.9882982122079318e-266</v>
       </c>
       <c r="F74">
-        <v>5.8963102085744757e-107</v>
+        <v>9.4406738707890598e-73</v>
       </c>
       <c r="G74">
-        <v>1.2761420922469508e-11</v>
+        <v>9.1624806433974245e-10</v>
       </c>
       <c r="H74">
-        <v>7.6886425278032951e-07</v>
+        <v>0.00090639009763242284</v>
       </c>
       <c r="I74">
-        <v>1.6507349738352738e-11</v>
+        <v>1.2544275920807048e-08</v>
       </c>
       <c r="J74">
-        <v>0.0001605878630322676</v>
+        <v>0.0032305390169669614</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.39604091774769579</v>
+        <v>0.87156632510412813</v>
       </c>
       <c r="B75">
-        <v>0.65581391813019829</v>
+        <v>0.93434473556951692</v>
       </c>
       <c r="C75">
-        <v>0.26757150562788107</v>
+        <v>0.90128832866536646</v>
       </c>
       <c r="D75">
-        <v>0.57594484851585215</v>
+        <v>0.93429460684411114</v>
       </c>
       <c r="E75">
-        <v>0.32464315281143008</v>
+        <v>0.87830666513815892</v>
       </c>
       <c r="F75">
-        <v>0.51864204188003638</v>
+        <v>0.1036758302378758</v>
       </c>
       <c r="G75">
-        <v>0.19126957733417843</v>
+        <v>0.03386253489141159</v>
       </c>
       <c r="H75">
-        <v>0.31847436277073821</v>
+        <v>0.025418685808223568</v>
       </c>
       <c r="I75">
-        <v>0.23481884250984611</v>
+        <v>0.032087370002005844</v>
       </c>
       <c r="J75">
-        <v>0.21467699896527626</v>
+        <v>0.024453135726394258</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.48135795811996362</v>
+        <v>0.89632416976212426</v>
       </c>
       <c r="B76">
-        <v>0.80873042266582162</v>
+        <v>0.96613746510858856</v>
       </c>
       <c r="C76">
-        <v>0.68152563722926174</v>
+        <v>0.9745813141917764</v>
       </c>
       <c r="D76">
-        <v>0.76518115749015381</v>
+        <v>0.9679126299979941</v>
       </c>
       <c r="E76">
-        <v>0.78532300103472374</v>
+        <v>0.97554686427360571</v>
       </c>
       <c r="F76">
-        <v>0.60395908225230421</v>
+        <v>0.12843367489587187</v>
       </c>
       <c r="G76">
-        <v>0.34418608186980165</v>
+        <v>0.065655264430483251</v>
       </c>
       <c r="H76">
-        <v>0.73242849437211888</v>
+        <v>0.098711671334633572</v>
       </c>
       <c r="I76">
-        <v>0.42405515148414785</v>
+        <v>0.0657053931558889</v>
       </c>
       <c r="J76">
-        <v>0.67535684718856992</v>
+        <v>0.12169333486184106</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B77">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C77">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D77">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E77">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F77">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="G77">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="H77">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="I77">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="J77">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B78">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C78">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D78">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E78">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F78">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="G78">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="H78">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="I78">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="J78">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="79">
@@ -1550,258 +1550,258 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.80617880368636852</v>
+        <v>0.95952138694641342</v>
       </c>
       <c r="B81">
-        <v>0.91294076492537324</v>
+        <v>0.98281274589258083</v>
       </c>
       <c r="C81">
-        <v>0.97934000000000021</v>
+        <v>0.99585000000000012</v>
       </c>
       <c r="D81">
-        <v>0.79061302552552559</v>
+        <v>0.97005408976609198</v>
       </c>
       <c r="E81">
-        <v>0.90035384615384617</v>
+        <v>0.97774705882352941</v>
       </c>
       <c r="F81">
-        <v>0.19382119631363126</v>
+        <v>0.040478613053586632</v>
       </c>
       <c r="G81">
-        <v>0.087059235074626859</v>
+        <v>0.017187254107419142</v>
       </c>
       <c r="H81">
-        <v>0.020660000000000001</v>
+        <v>0.00415</v>
       </c>
       <c r="I81">
-        <v>0.20938697447447446</v>
+        <v>0.029945910233908031</v>
       </c>
       <c r="J81">
-        <v>0.099646153846153857</v>
+        <v>0.02225294117647059</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.01762305213644676</v>
+        <v>0.0040871399848882344</v>
       </c>
       <c r="B82">
-        <v>0.024237061487251143</v>
+        <v>0.0049059011558672252</v>
       </c>
       <c r="C82">
-        <v>0.018478865766058263</v>
+        <v>0.0041273840278127118</v>
       </c>
       <c r="D82">
-        <v>0.043034307727400176</v>
+        <v>0.0067816710809068077</v>
       </c>
       <c r="E82">
-        <v>0.050457791389237762</v>
+        <v>0.012464140136183436</v>
       </c>
       <c r="F82">
-        <v>0.01762305213644676</v>
+        <v>0.0040871399848882344</v>
       </c>
       <c r="G82">
-        <v>0.024237061487251143</v>
+        <v>0.0049059011558672252</v>
       </c>
       <c r="H82">
-        <v>0.018478865766058263</v>
+        <v>0.0041273840278127118</v>
       </c>
       <c r="I82">
-        <v>0.043034307727400176</v>
+        <v>0.0067816710809068077</v>
       </c>
       <c r="J82">
-        <v>0.050457791389237762</v>
+        <v>0.012464140136183436</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>45.745697024812522</v>
+        <v>234.76597094646667</v>
       </c>
       <c r="B83">
-        <v>37.66713903851695</v>
+        <v>200.33276551387166</v>
       </c>
       <c r="C83">
-        <v>52.997841555775523</v>
+        <v>241.278735705082</v>
       </c>
       <c r="D83">
-        <v>18.371691500968147</v>
+        <v>143.040568938413</v>
       </c>
       <c r="E83">
-        <v>17.843703050900565</v>
+        <v>78.444806311598398</v>
       </c>
       <c r="F83">
-        <v>10.998162793423498</v>
+        <v>9.9038969067005294</v>
       </c>
       <c r="G83">
-        <v>3.591988043617441</v>
+        <v>3.5033836926909956</v>
       </c>
       <c r="H83">
-        <v>1.1180339887498949</v>
+        <v>1.0054794930723405</v>
       </c>
       <c r="I83">
-        <v>4.8655824975931159</v>
+        <v>4.4157125694606574</v>
       </c>
       <c r="J83">
-        <v>1.9748417658131501</v>
+        <v>1.7853571071357128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1.2167714073058395e-223</v>
+        <v>0</v>
       </c>
       <c r="B84">
-        <v>3.8839299771197071e-178</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>1.5463460526069201e-261</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>5.613726988600287e-63</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>4.8619091125822692e-60</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>2.8787309809582869e-26</v>
+        <v>6.9384813585231285e-23</v>
       </c>
       <c r="G84">
-        <v>0.00034859699404501851</v>
+        <v>0.00046396101206088553</v>
       </c>
       <c r="H84">
-        <v>0.26389450621783772</v>
+        <v>0.31472133496483978</v>
       </c>
       <c r="I84">
-        <v>1.3794407920548471e-06</v>
+        <v>1.030943952452798e-05</v>
       </c>
       <c r="J84">
-        <v>0.048636125074343284</v>
+        <v>0.074272301102681446</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.77158491901476445</v>
+        <v>0.95150853458636964</v>
       </c>
       <c r="B85">
-        <v>0.86536364245096875</v>
+        <v>0.97319470936819508</v>
       </c>
       <c r="C85">
-        <v>0.94306616126743414</v>
+        <v>0.98775824905181953</v>
       </c>
       <c r="D85">
-        <v>0.70613708645903839</v>
+        <v>0.95675859968583943</v>
       </c>
       <c r="E85">
-        <v>0.80130567886770587</v>
+        <v>0.9533110681123218</v>
       </c>
       <c r="F85">
-        <v>0.15922731164202714</v>
+        <v>0.032465760693542831</v>
       </c>
       <c r="G85">
-        <v>0.039482112600222344</v>
+        <v>0.0075692175830334319</v>
       </c>
       <c r="H85">
-        <v>-0.015613838732566023</v>
+        <v>-0.0039417509481805895</v>
       </c>
       <c r="I85">
-        <v>0.12491103540798729</v>
+        <v>0.016650420153655525</v>
       </c>
       <c r="J85">
-        <v>0.00059798656001359973</v>
+        <v>-0.002183049534737018</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.84077268835797259</v>
+        <v>0.96753423930645721</v>
       </c>
       <c r="B86">
-        <v>0.96051788739977773</v>
+        <v>0.99243078241696658</v>
       </c>
       <c r="C86">
-        <v>1.0156138387325662</v>
+        <v>1.0039417509481807</v>
       </c>
       <c r="D86">
-        <v>0.8750889645920128</v>
+        <v>0.98334957984634452</v>
       </c>
       <c r="E86">
-        <v>0.99940201343998647</v>
+        <v>1.002183049534737</v>
       </c>
       <c r="F86">
-        <v>0.22841508098523539</v>
+        <v>0.048491465413630433</v>
       </c>
       <c r="G86">
-        <v>0.13463635754903136</v>
+        <v>0.026805290631804854</v>
       </c>
       <c r="H86">
-        <v>0.056933838732566022</v>
+        <v>0.012241750948180589</v>
       </c>
       <c r="I86">
-        <v>0.29386291354096161</v>
+        <v>0.043241400314160537</v>
       </c>
       <c r="J86">
-        <v>0.19869432113229413</v>
+        <v>0.046688931887678198</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B87">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C87">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D87">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E87">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F87">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="G87">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="H87">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="I87">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="J87">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B88">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C88">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D88">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E88">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F88">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="G88">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="H88">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="I88">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="J88">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="89">
@@ -1838,162 +1838,162 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.48615338827838828</v>
+        <v>0.90335165292080766</v>
       </c>
       <c r="B91">
-        <v>0.72017979532163734</v>
+        <v>0.94509992321989977</v>
       </c>
       <c r="C91">
-        <v>0.78365190476190483</v>
+        <v>0.96521916961005427</v>
       </c>
       <c r="D91">
-        <v>0.51384661172161172</v>
+        <v>0.096648347079192232</v>
       </c>
       <c r="E91">
-        <v>0.27982020467836255</v>
+        <v>0.05490007678010024</v>
       </c>
       <c r="F91">
-        <v>0.21634809523809526</v>
+        <v>0.034780830389945672</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.03193958024582659</v>
+        <v>0.0082894564165841792</v>
       </c>
       <c r="B92">
-        <v>0.02258698548326386</v>
+        <v>0.0050799507660999237</v>
       </c>
       <c r="C92">
-        <v>0.034408320977239427</v>
+        <v>0.0061130947906358523</v>
       </c>
       <c r="D92">
-        <v>0.03193958024582659</v>
+        <v>0.0082894564165841792</v>
       </c>
       <c r="E92">
-        <v>0.02258698548326386</v>
+        <v>0.0050799507660999237</v>
       </c>
       <c r="F92">
-        <v>0.034408320977239427</v>
+        <v>0.0061130947906358523</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>15.221032478719312</v>
+        <v>108.97598196107654</v>
       </c>
       <c r="B93">
-        <v>31.8847238758472</v>
+        <v>186.04509506801577</v>
       </c>
       <c r="C93">
-        <v>22.775069590878278</v>
+        <v>157.89370239908504</v>
       </c>
       <c r="D93">
-        <v>16.088082804054817</v>
+        <v>11.659189966405293</v>
       </c>
       <c r="E93">
-        <v>12.38855910567168</v>
+        <v>10.807206468705438</v>
       </c>
       <c r="F93">
-        <v>6.2876678981577214</v>
+        <v>5.6895617655436279</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>4.8995076608525231e-46</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>9.221698785358974e-144</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>1.5208787513999034e-88</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>1.5142502709246625e-50</v>
+        <v>5.853799115394639e-31</v>
       </c>
       <c r="E94">
-        <v>2.5405524825796506e-32</v>
+        <v>6.9072041777771397e-27</v>
       </c>
       <c r="F94">
-        <v>5.3451163584628548e-10</v>
+        <v>1.3563400784760255e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.42345629432844395</v>
+        <v>0.8871001443704043</v>
       </c>
       <c r="B95">
-        <v>0.67584175643725775</v>
+        <v>0.93514066182059563</v>
       </c>
       <c r="C95">
-        <v>0.71610869610462424</v>
+        <v>0.95323442570565442</v>
       </c>
       <c r="D95">
-        <v>0.4511495177716674</v>
+        <v>0.08039683852878883</v>
       </c>
       <c r="E95">
-        <v>0.2354821657939829</v>
+        <v>0.044940815380796056</v>
       </c>
       <c r="F95">
-        <v>0.1488048865808147</v>
+        <v>0.022796086485545874</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.54885048222833266</v>
+        <v>0.91960316147121102</v>
       </c>
       <c r="B96">
-        <v>0.76451783420601693</v>
+        <v>0.95505918461920392</v>
       </c>
       <c r="C96">
-        <v>0.85119511341918541</v>
+        <v>0.97720391351445413</v>
       </c>
       <c r="D96">
-        <v>0.57654370567155611</v>
+        <v>0.11289985562959563</v>
       </c>
       <c r="E96">
-        <v>0.3241582435627422</v>
+        <v>0.064859338179404424</v>
       </c>
       <c r="F96">
-        <v>0.28389130389537581</v>
+        <v>0.046765574294345469</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B97">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C97">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D97">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E97">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F97">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B98">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C98">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D98">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E98">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F98">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="99">
@@ -2018,162 +2018,162 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.64076309523809527</v>
+        <v>0.92880092166427664</v>
       </c>
       <c r="B101">
-        <v>0.46918567251461996</v>
+        <v>0.89774080109016763</v>
       </c>
       <c r="C101">
-        <v>0.41950428571428577</v>
+        <v>0.90368614834673822</v>
       </c>
       <c r="D101">
-        <v>0.35923690476190473</v>
+        <v>0.071199078335723226</v>
       </c>
       <c r="E101">
-        <v>0.53081432748538016</v>
+        <v>0.10225919890983212</v>
       </c>
       <c r="F101">
-        <v>0.58049571428571434</v>
+        <v>0.096313851653261839</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.030261652981861138</v>
+        <v>0.0070185158375938306</v>
       </c>
       <c r="B102">
-        <v>0.025123784677343899</v>
+        <v>0.0066352666739983553</v>
       </c>
       <c r="C102">
-        <v>0.039852242774094465</v>
+        <v>0.0096993530267065805</v>
       </c>
       <c r="D102">
-        <v>0.030261652981861138</v>
+        <v>0.0070185158375938306</v>
       </c>
       <c r="E102">
-        <v>0.025123784677343899</v>
+        <v>0.0066352666739983553</v>
       </c>
       <c r="F102">
-        <v>0.039852242774094465</v>
+        <v>0.0096993530267065805</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>21.174094343827459</v>
+        <v>132.33580192115076</v>
       </c>
       <c r="B103">
-        <v>18.674959944937026</v>
+        <v>135.29837536268857</v>
       </c>
       <c r="C103">
-        <v>10.526491271577322</v>
+        <v>93.169734708953598</v>
       </c>
       <c r="D103">
-        <v>11.87102717016918</v>
+        <v>10.144463585072215</v>
       </c>
       <c r="E103">
-        <v>21.127960389027589</v>
+        <v>15.411467833019527</v>
       </c>
       <c r="F103">
-        <v>14.566199387479882</v>
+        <v>9.9299253659566258</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>4.5605514356346552e-79</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>1.1135582054194603e-64</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>2.4918137423260915e-24</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>5.2016482525475774e-30</v>
+        <v>6.4176336472423988e-24</v>
       </c>
       <c r="E104">
-        <v>8.5027020546649653e-79</v>
+        <v>3.1101651476957291e-52</v>
       </c>
       <c r="F104">
-        <v>1.0163879429980287e-42</v>
+        <v>5.3767833232956968e-23</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.58135975663810613</v>
+        <v>0.91504109660293698</v>
       </c>
       <c r="B105">
-        <v>0.41986792080435992</v>
+        <v>0.88473233736618251</v>
       </c>
       <c r="C105">
-        <v>0.34127471005635657</v>
+        <v>0.88467053251799166</v>
       </c>
       <c r="D105">
-        <v>0.29983356616191559</v>
+        <v>0.057439253274383567</v>
       </c>
       <c r="E105">
-        <v>0.48149657577512012</v>
+        <v>0.089250735185847002</v>
       </c>
       <c r="F105">
-        <v>0.50226613862778513</v>
+        <v>0.077298235824515255</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.70016643383808441</v>
+        <v>0.94256074672561629</v>
       </c>
       <c r="B106">
-        <v>0.51850342422488005</v>
+        <v>0.91074926481415275</v>
       </c>
       <c r="C106">
-        <v>0.49773386137221498</v>
+        <v>0.92270176417548477</v>
       </c>
       <c r="D106">
-        <v>0.41864024336189387</v>
+        <v>0.084958903397062885</v>
       </c>
       <c r="E106">
-        <v>0.58013207919564025</v>
+        <v>0.11526766263381724</v>
       </c>
       <c r="F106">
-        <v>0.65872528994364354</v>
+        <v>0.11532946748200842</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B107">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C107">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D107">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E107">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F107">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B108">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C108">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D108">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E108">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F108">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="109">
@@ -2198,162 +2198,162 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.87308351648351645</v>
+        <v>0.97484972213966348</v>
       </c>
       <c r="B111">
-        <v>0.8106345321637427</v>
+        <v>0.96293827374372909</v>
       </c>
       <c r="C111">
-        <v>0.79684380952380951</v>
+        <v>0.96925558250705701</v>
       </c>
       <c r="D111">
-        <v>0.12691648351648352</v>
+        <v>0.025150277860336433</v>
       </c>
       <c r="E111">
-        <v>0.1893654678362573</v>
+        <v>0.037061726256270876</v>
       </c>
       <c r="F111">
-        <v>0.20315619047619049</v>
+        <v>0.03074441749294296</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.021610317679167948</v>
+        <v>0.0044705205815146459</v>
       </c>
       <c r="B112">
-        <v>0.019977962544036405</v>
+        <v>0.0042511823833671879</v>
       </c>
       <c r="C112">
-        <v>0.033843998063373314</v>
+        <v>0.0058215340852437233</v>
       </c>
       <c r="D112">
-        <v>0.021610317679167948</v>
+        <v>0.0044705205815146459</v>
       </c>
       <c r="E112">
-        <v>0.019977962544036405</v>
+        <v>0.0042511823833671879</v>
       </c>
       <c r="F112">
-        <v>0.033843998063373314</v>
+        <v>0.0058215340852437233</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>40.401234699347206</v>
+        <v>218.06179042561908</v>
       </c>
       <c r="B113">
-        <v>40.576436680011902</v>
+        <v>226.51069441556751</v>
       </c>
       <c r="C113">
-        <v>23.544612194803623</v>
+        <v>166.49487374194055</v>
       </c>
       <c r="D113">
-        <v>5.8729577880675619</v>
+        <v>5.6258051834793994</v>
       </c>
       <c r="E113">
-        <v>9.4787177330445314</v>
+        <v>8.7179807672508733</v>
       </c>
       <c r="F113">
-        <v>6.0027243263570087</v>
+        <v>5.281153909391878</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>6.6154919459009242e-194</v>
+        <v>0</v>
       </c>
       <c r="B114">
-        <v>6.6435764335481207e-195</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>3.7628365093327612e-93</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>6.3187897789792092e-09</v>
+        <v>1.9610343064782263e-08</v>
       </c>
       <c r="E114">
-        <v>2.9651348352715254e-20</v>
+        <v>3.9517059716407491e-18</v>
       </c>
       <c r="F114">
-        <v>2.9632719695359258e-09</v>
+        <v>1.3457037081383567e-07</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.83066266726161797</v>
+        <v>0.96608525076734431</v>
       </c>
       <c r="B115">
-        <v>0.77141798063390266</v>
+        <v>0.95460381568271602</v>
       </c>
       <c r="C115">
-        <v>0.73040836140929288</v>
+        <v>0.95784244439422184</v>
       </c>
       <c r="D115">
-        <v>0.084495634294585065</v>
+        <v>0.016385806488017244</v>
       </c>
       <c r="E115">
-        <v>0.15014891630641725</v>
+        <v>0.028727268195257852</v>
       </c>
       <c r="F115">
-        <v>0.13672074236167392</v>
+        <v>0.019331279380107761</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.91550436570541494</v>
+        <v>0.98361419351198265</v>
       </c>
       <c r="B116">
-        <v>0.84985108369358275</v>
+        <v>0.97127273180474216</v>
       </c>
       <c r="C116">
-        <v>0.86327925763832614</v>
+        <v>0.98066872061989219</v>
       </c>
       <c r="D116">
-        <v>0.16933733273838197</v>
+        <v>0.033914749232655625</v>
       </c>
       <c r="E116">
-        <v>0.22858201936609734</v>
+        <v>0.0453961843172839</v>
       </c>
       <c r="F116">
-        <v>0.26959163859070706</v>
+        <v>0.042157555605778163</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B117">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C117">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D117">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E117">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F117">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B118">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C118">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D118">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E118">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F118">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="119">
@@ -2378,306 +2378,306 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.53580778174603183</v>
+        <v>0.95200005495955797</v>
       </c>
       <c r="B121">
-        <v>0.68226630816459832</v>
+        <v>0.95042780226929369</v>
       </c>
       <c r="C121">
-        <v>0.68225507542447572</v>
+        <v>0.94671057464050179</v>
       </c>
       <c r="D121">
-        <v>0.65890046038713357</v>
+        <v>0.92575057388884896</v>
       </c>
       <c r="E121">
-        <v>0.60607862503250698</v>
+        <v>0.89895896712006507</v>
       </c>
       <c r="F121">
-        <v>0.55996733675148269</v>
+        <v>0.86855111866966028</v>
       </c>
       <c r="G121">
-        <v>0.46419221825396828</v>
+        <v>0.047999945040442013</v>
       </c>
       <c r="H121">
-        <v>0.31773369183540179</v>
+        <v>0.04957219773070632</v>
       </c>
       <c r="I121">
-        <v>0.31774492457552428</v>
+        <v>0.05328942535949819</v>
       </c>
       <c r="J121">
-        <v>0.34109953961286654</v>
+        <v>0.074249426111150957</v>
       </c>
       <c r="K121">
-        <v>0.39392137496749313</v>
+        <v>0.10104103287993497</v>
       </c>
       <c r="L121">
-        <v>0.44003266324851725</v>
+        <v>0.13144888133033972</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.1836945982887305</v>
+        <v>0.028908280424454806</v>
       </c>
       <c r="B122">
-        <v>0.037379813699772599</v>
+        <v>0.0063843785771279474</v>
       </c>
       <c r="C122">
-        <v>0.03027590061816017</v>
+        <v>0.0058947952850591095</v>
       </c>
       <c r="D122">
-        <v>0.040825294844940976</v>
+        <v>0.0098510605010999099</v>
       </c>
       <c r="E122">
-        <v>0.059415869914405853</v>
+        <v>0.016825789749504654</v>
       </c>
       <c r="F122">
-        <v>0.075568908781942529</v>
+        <v>0.028581467486672223</v>
       </c>
       <c r="G122">
-        <v>0.1836945982887305</v>
+        <v>0.028908280424454813</v>
       </c>
       <c r="H122">
-        <v>0.037379813699772599</v>
+        <v>0.00638437857712795</v>
       </c>
       <c r="I122">
-        <v>0.03027590061816016</v>
+        <v>0.0058947952850591069</v>
       </c>
       <c r="J122">
-        <v>0.040825294844940969</v>
+        <v>0.0098510605010999099</v>
       </c>
       <c r="K122">
-        <v>0.059415869914405846</v>
+        <v>0.01682578974950465</v>
       </c>
       <c r="L122">
-        <v>0.075568908781942515</v>
+        <v>0.028581467486672226</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>2.9168401615373094</v>
+        <v>32.931742773403379</v>
       </c>
       <c r="B123">
-        <v>18.252266146761158</v>
+        <v>148.86770744990025</v>
       </c>
       <c r="C123">
-        <v>22.534592249759324</v>
+        <v>160.60109450111443</v>
       </c>
       <c r="D123">
-        <v>16.139515045505757</v>
+        <v>93.974712040950848</v>
       </c>
       <c r="E123">
-        <v>10.200618553689784</v>
+        <v>53.427445635740824</v>
       </c>
       <c r="F123">
-        <v>7.4100227961117389</v>
+        <v>30.388611749017887</v>
       </c>
       <c r="G123">
-        <v>2.5269780525846093</v>
+        <v>1.6604220083542811</v>
       </c>
       <c r="H123">
-        <v>8.5001411293105171</v>
+        <v>7.7646081183686109</v>
       </c>
       <c r="I123">
-        <v>10.494978451109521</v>
+        <v>9.0400807462415305</v>
       </c>
       <c r="J123">
-        <v>8.3551029063819549</v>
+        <v>7.537201309733172</v>
       </c>
       <c r="K123">
-        <v>6.6299016665913326</v>
+        <v>6.0051286973266507</v>
       </c>
       <c r="L123">
-        <v>5.8229326100003815</v>
+        <v>4.5990948992257099</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.0065610368830116908</v>
+        <v>1.762628128409657e-189</v>
       </c>
       <c r="B124">
-        <v>6.7831157934198544e-45</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>7.1833725235715306e-75</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>2.3540360540820695e-33</v>
+        <v>1.3203929859692014e-247</v>
       </c>
       <c r="E124">
-        <v>1.3753802815321729e-17</v>
+        <v>2.7884464356416723e-272</v>
       </c>
       <c r="F124">
-        <v>1.3401562572741482e-12</v>
+        <v>1.1595994108397648e-91</v>
       </c>
       <c r="G124">
-        <v>0.016887036054802747</v>
+        <v>0.096990436316053918</v>
       </c>
       <c r="H124">
-        <v>3.8475828241377091e-15</v>
+        <v>1.4035752574623271e-14</v>
       </c>
       <c r="I124">
-        <v>4.2373017512105145e-23</v>
+        <v>1.4668166526108953e-18</v>
       </c>
       <c r="J124">
-        <v>6.8725501739296077e-14</v>
+        <v>4.2841025007104724e-13</v>
       </c>
       <c r="K124">
-        <v>1.3039557488658148e-09</v>
+        <v>2.8448136467610644e-09</v>
       </c>
       <c r="L124">
-        <v>1.5096174582521248e-08</v>
+        <v>6.3733212533174836e-06</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.1609864768291826</v>
+        <v>0.8953056595966461</v>
       </c>
       <c r="B125">
-        <v>0.60856966994325212</v>
+        <v>0.93790574827028372</v>
       </c>
       <c r="C125">
-        <v>0.62274829987273517</v>
+        <v>0.93513727989496187</v>
       </c>
       <c r="D125">
-        <v>0.57816321993087316</v>
+        <v>0.90637477420371582</v>
       </c>
       <c r="E125">
-        <v>0.48832805933173412</v>
+        <v>0.86593339331947861</v>
       </c>
       <c r="F125">
-        <v>0.41124457845957535</v>
+        <v>0.81229506666324891</v>
       </c>
       <c r="G125">
-        <v>0.089370913337119051</v>
+        <v>-0.0086944503224698766</v>
       </c>
       <c r="H125">
-        <v>0.24403705361405564</v>
+        <v>0.037050143731696336</v>
       </c>
       <c r="I125">
-        <v>0.25823814902378373</v>
+        <v>0.041716130613958236</v>
       </c>
       <c r="J125">
-        <v>0.26036229915660614</v>
+        <v>0.054873626426017764</v>
       </c>
       <c r="K125">
-        <v>0.2761708092667205</v>
+        <v>0.068015459079348473</v>
       </c>
       <c r="L125">
-        <v>0.29130990495660991</v>
+        <v>0.07519282932392829</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.910629086662881</v>
+        <v>1.0086944503224697</v>
       </c>
       <c r="B126">
-        <v>0.75596294638594452</v>
+        <v>0.96294985626830365</v>
       </c>
       <c r="C126">
-        <v>0.74176185097621627</v>
+        <v>0.95828386938604171</v>
       </c>
       <c r="D126">
-        <v>0.73963770084339397</v>
+        <v>0.9451263735739821</v>
       </c>
       <c r="E126">
-        <v>0.72382919073327989</v>
+        <v>0.93198454092065153</v>
       </c>
       <c r="F126">
-        <v>0.70869009504339009</v>
+        <v>0.92480717067607165</v>
       </c>
       <c r="G126">
-        <v>0.83901352317081757</v>
+        <v>0.1046943404033539</v>
       </c>
       <c r="H126">
-        <v>0.39143033005674793</v>
+        <v>0.062094251729716304</v>
       </c>
       <c r="I126">
-        <v>0.37725170012726483</v>
+        <v>0.064862720105038144</v>
       </c>
       <c r="J126">
-        <v>0.42183678006912695</v>
+        <v>0.093625225796284156</v>
       </c>
       <c r="K126">
-        <v>0.51167194066826582</v>
+        <v>0.13406660668052148</v>
       </c>
       <c r="L126">
-        <v>0.58875542154042459</v>
+        <v>0.18770493333675115</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>30.649549955520541</v>
+        <v>1949.0557629988143</v>
       </c>
       <c r="B127">
-        <v>205.72079717698335</v>
+        <v>1702.5608128280217</v>
       </c>
       <c r="C127">
-        <v>431.0054569057574</v>
+        <v>710.74112145930087</v>
       </c>
       <c r="D127">
-        <v>135.48800611150094</v>
+        <v>344.47313304997613</v>
       </c>
       <c r="E127">
-        <v>109.81068701769733</v>
+        <v>839.18563487239931</v>
       </c>
       <c r="F127">
-        <v>294.87220300647806</v>
+        <v>286.78900333355261</v>
       </c>
       <c r="G127">
-        <v>30.649549955520541</v>
+        <v>1949.0557629987925</v>
       </c>
       <c r="H127">
-        <v>205.72079717698355</v>
+        <v>1702.5608128279939</v>
       </c>
       <c r="I127">
-        <v>431.00545690575973</v>
+        <v>710.74112145930837</v>
       </c>
       <c r="J127">
-        <v>135.48800611150125</v>
+        <v>344.4731330499759</v>
       </c>
       <c r="K127">
-        <v>109.81068701769743</v>
+        <v>839.18563487240544</v>
       </c>
       <c r="L127">
-        <v>294.8722030064788</v>
+        <v>286.7890033335521</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>2.040459046747289</v>
+        <v>1.9611818665959651</v>
       </c>
       <c r="B128">
-        <v>1.9715624805747625</v>
+        <v>1.9613583135358337</v>
       </c>
       <c r="C128">
-        <v>1.9654832502669484</v>
+        <v>1.9633073221174486</v>
       </c>
       <c r="D128">
-        <v>1.977627859465791</v>
+        <v>1.9668744987374516</v>
       </c>
       <c r="E128">
-        <v>1.9818032769763974</v>
+        <v>1.9627948697955633</v>
       </c>
       <c r="F128">
-        <v>1.9680416283508013</v>
+        <v>1.9682702447886589</v>
       </c>
       <c r="G128">
-        <v>2.040459046747289</v>
+        <v>1.9611818665959651</v>
       </c>
       <c r="H128">
-        <v>1.9715624805747625</v>
+        <v>1.9613583135358337</v>
       </c>
       <c r="I128">
-        <v>1.9654832502669484</v>
+        <v>1.9633073221174486</v>
       </c>
       <c r="J128">
-        <v>1.977627859465791</v>
+        <v>1.9668744987374516</v>
       </c>
       <c r="K128">
-        <v>1.981803276976394</v>
+        <v>1.9627948697955633</v>
       </c>
       <c r="L128">
-        <v>1.9680416283508013</v>
+        <v>1.9682702447886589</v>
       </c>
     </row>
     <row r="129">
@@ -2720,306 +2720,306 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.60270330952380946</v>
+        <v>0.94611420807564139</v>
       </c>
       <c r="B131">
-        <v>0.55001116662591476</v>
+        <v>0.93135970952248104</v>
       </c>
       <c r="C131">
-        <v>0.48306097847711127</v>
+        <v>0.91127005521459703</v>
       </c>
       <c r="D131">
-        <v>0.51243550412730909</v>
+        <v>0.89841413750146426</v>
       </c>
       <c r="E131">
-        <v>0.53829257935218533</v>
+        <v>0.87189102112469041</v>
       </c>
       <c r="F131">
-        <v>0.52268108714007533</v>
+        <v>0.84974906474884782</v>
       </c>
       <c r="G131">
-        <v>0.39729669047619043</v>
+        <v>0.053885791924358675</v>
       </c>
       <c r="H131">
-        <v>0.44998883337408524</v>
+        <v>0.068640290477518878</v>
       </c>
       <c r="I131">
-        <v>0.51693902152288884</v>
+        <v>0.088729944785402887</v>
       </c>
       <c r="J131">
-        <v>0.48756449587269091</v>
+        <v>0.10158586249853571</v>
       </c>
       <c r="K131">
-        <v>0.46170742064781473</v>
+        <v>0.12810897887530959</v>
       </c>
       <c r="L131">
-        <v>0.47731891285992462</v>
+        <v>0.15025093525115232</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.20028376146380136</v>
+        <v>0.029240211068475293</v>
       </c>
       <c r="B132">
-        <v>0.039164607230723632</v>
+        <v>0.0076939712892722407</v>
       </c>
       <c r="C132">
-        <v>0.030804087881121694</v>
+        <v>0.0069733450447511851</v>
       </c>
       <c r="D132">
-        <v>0.039970614900661137</v>
+        <v>0.010439294541583431</v>
       </c>
       <c r="E132">
-        <v>0.060314048318520587</v>
+        <v>0.017902723040177707</v>
       </c>
       <c r="F132">
-        <v>0.073591936400263666</v>
+        <v>0.030609084554302834</v>
       </c>
       <c r="G132">
-        <v>0.20028376146380136</v>
+        <v>0.02924021106847528</v>
       </c>
       <c r="H132">
-        <v>0.039164607230723632</v>
+        <v>0.0076939712892722381</v>
       </c>
       <c r="I132">
-        <v>0.03080408788112169</v>
+        <v>0.0069733450447511825</v>
       </c>
       <c r="J132">
-        <v>0.039970614900661137</v>
+        <v>0.010439294541583431</v>
       </c>
       <c r="K132">
-        <v>0.060314048318520594</v>
+        <v>0.017902723040177704</v>
       </c>
       <c r="L132">
-        <v>0.073591936400263666</v>
+        <v>0.030609084554302834</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>3.0092470059423171</v>
+        <v>32.356613495710164</v>
       </c>
       <c r="B133">
-        <v>14.043576726959873</v>
+        <v>121.0505829182236</v>
       </c>
       <c r="C133">
-        <v>15.681716671544608</v>
+        <v>130.67904275015147</v>
       </c>
       <c r="D133">
-        <v>12.820305752134754</v>
+        <v>86.060809370093025</v>
       </c>
       <c r="E133">
-        <v>8.9248291958358266</v>
+        <v>48.70158685737205</v>
       </c>
       <c r="F133">
-        <v>7.1024233456398447</v>
+        <v>27.761335470236904</v>
       </c>
       <c r="G133">
-        <v>1.9836690082735267</v>
+        <v>1.8428660380791337</v>
       </c>
       <c r="H133">
-        <v>11.489680739631687</v>
+        <v>8.9213083720788706</v>
       </c>
       <c r="I133">
-        <v>16.781507166121784</v>
+        <v>12.724158092849525</v>
       </c>
       <c r="J133">
-        <v>12.198073436809358</v>
+        <v>9.7311041559257685</v>
       </c>
       <c r="K133">
-        <v>7.6550560527710179</v>
+        <v>7.1558376112842979</v>
       </c>
       <c r="L133">
-        <v>6.4860219231602452</v>
+        <v>4.9087039824597101</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.0059139130217912899</v>
+        <v>9.9140415476134659e-37</v>
       </c>
       <c r="B134">
-        <v>3.0014867257542811e-36</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>3.6454330245346023e-48</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>3.5336667342362581e-31</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>5.5315816769537382e-15</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>4.6637177836205958e-12</v>
+        <v>5.7287292930462558e-67</v>
       </c>
       <c r="G134">
-        <v>0.058401246404228627</v>
+        <v>0.070909964075947629</v>
       </c>
       <c r="H134">
-        <v>2.3331500172346218e-26</v>
+        <v>1.4892194803226313e-18</v>
       </c>
       <c r="I134">
-        <v>6.2992231230864778e-54</v>
+        <v>4.8444117119843345e-36</v>
       </c>
       <c r="J134">
-        <v>8.0952941960522776e-29</v>
+        <v>1.1302555065398515e-21</v>
       </c>
       <c r="K134">
-        <v>5.0619999085152169e-12</v>
+        <v>1.0462325926877928e-12</v>
       </c>
       <c r="L134">
-        <v>2.2713798088988532e-10</v>
+        <v>2.0453980293936191e-06</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.19016625597167386</v>
+        <v>0.88747416190427553</v>
       </c>
       <c r="B135">
-        <v>0.47299961000163648</v>
+        <v>0.91626608059379033</v>
       </c>
       <c r="C135">
-        <v>0.42258879329270455</v>
+        <v>0.89759628833228366</v>
       </c>
       <c r="D135">
-        <v>0.43382629083102792</v>
+        <v>0.877935061384719</v>
       </c>
       <c r="E135">
-        <v>0.41889433866212711</v>
+        <v>0.83678783969483783</v>
       </c>
       <c r="F135">
-        <v>0.3780645303957833</v>
+        <v>0.7893504171970801</v>
       </c>
       <c r="G135">
-        <v>-0.015240363075945174</v>
+        <v>-0.0047542542470071295</v>
       </c>
       <c r="H135">
-        <v>0.37297727674980696</v>
+        <v>0.053546661548828207</v>
       </c>
       <c r="I135">
-        <v>0.45646683633848201</v>
+        <v>0.075056177903089549</v>
       </c>
       <c r="J135">
-        <v>0.40895528257640973</v>
+        <v>0.081106786381790419</v>
       </c>
       <c r="K135">
-        <v>0.3423091799577565</v>
+        <v>0.093005797445456992</v>
       </c>
       <c r="L135">
-        <v>0.33270235611563259</v>
+        <v>0.089852287699384553</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1.015240363075945</v>
+        <v>1.0047542542470072</v>
       </c>
       <c r="B136">
-        <v>0.62702272325019304</v>
+        <v>0.94645333845117174</v>
       </c>
       <c r="C136">
-        <v>0.54353316366151805</v>
+        <v>0.9249438220969104</v>
       </c>
       <c r="D136">
-        <v>0.59104471742359022</v>
+        <v>0.91889321361820953</v>
       </c>
       <c r="E136">
-        <v>0.65769082004224355</v>
+        <v>0.90699420255454299</v>
       </c>
       <c r="F136">
-        <v>0.66729764388436741</v>
+        <v>0.91014771230061553</v>
       </c>
       <c r="G136">
-        <v>0.80983374402832609</v>
+        <v>0.11252583809572447</v>
       </c>
       <c r="H136">
-        <v>0.52700038999836352</v>
+        <v>0.083733919406209542</v>
       </c>
       <c r="I136">
-        <v>0.57741120670729573</v>
+        <v>0.10240371166771622</v>
       </c>
       <c r="J136">
-        <v>0.56617370916897203</v>
+        <v>0.122064938615281</v>
       </c>
       <c r="K136">
-        <v>0.581105661337873</v>
+        <v>0.16321216030516217</v>
       </c>
       <c r="L136">
-        <v>0.62193546960421664</v>
+        <v>0.21064958280292009</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>24.946422483475757</v>
+        <v>53.326846573732979</v>
       </c>
       <c r="B137">
-        <v>372.32489480891053</v>
+        <v>1331.3005136577897</v>
       </c>
       <c r="C137">
-        <v>752.35995940801433</v>
+        <v>2643.052520561072</v>
       </c>
       <c r="D137">
-        <v>354.67241134830084</v>
+        <v>1344.5645590851109</v>
       </c>
       <c r="E137">
-        <v>121.94310698355676</v>
+        <v>2932.3774866471108</v>
       </c>
       <c r="F137">
-        <v>461.80798937732391</v>
+        <v>180.06235421069402</v>
       </c>
       <c r="G137">
-        <v>24.946422483475757</v>
+        <v>53.326846573733107</v>
       </c>
       <c r="H137">
-        <v>372.32489480891064</v>
+        <v>1331.3005136578079</v>
       </c>
       <c r="I137">
-        <v>752.35995940801467</v>
+        <v>2643.0525205611066</v>
       </c>
       <c r="J137">
-        <v>354.67241134830203</v>
+        <v>1344.5645590851063</v>
       </c>
       <c r="K137">
-        <v>121.94310698355665</v>
+        <v>2932.3774866471372</v>
       </c>
       <c r="L137">
-        <v>461.80798937732408</v>
+        <v>180.06235421069425</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>2.0597628611378771</v>
+        <v>2.0054590588980852</v>
       </c>
       <c r="B138">
-        <v>1.9663559031906928</v>
+        <v>1.9617474982959489</v>
       </c>
       <c r="C138">
-        <v>1.9631220835942091</v>
+        <v>1.9608619385047565</v>
       </c>
       <c r="D138">
-        <v>1.9666751059909493</v>
+        <v>1.9617298884680214</v>
       </c>
       <c r="E138">
-        <v>1.979609129526706</v>
+        <v>1.9607733053275318</v>
       </c>
       <c r="F138">
-        <v>1.965114166282135</v>
+        <v>1.9732261984057702</v>
       </c>
       <c r="G138">
-        <v>2.0597628611378771</v>
+        <v>2.0054590588980852</v>
       </c>
       <c r="H138">
-        <v>1.9663559031906928</v>
+        <v>1.9617474982959489</v>
       </c>
       <c r="I138">
-        <v>1.9631220835942127</v>
+        <v>1.9608619385047565</v>
       </c>
       <c r="J138">
-        <v>1.9666751059909493</v>
+        <v>1.9617298884680214</v>
       </c>
       <c r="K138">
-        <v>1.979609129526706</v>
+        <v>1.9607733053275318</v>
       </c>
       <c r="L138">
-        <v>1.965114166282135</v>
+        <v>1.9732261984057702</v>
       </c>
     </row>
     <row r="139">
@@ -3062,306 +3062,306 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.86148890873015882</v>
+        <v>0.9792874155274216</v>
       </c>
       <c r="B141">
-        <v>0.76772252520948692</v>
+        <v>0.96429685036850754</v>
       </c>
       <c r="C141">
-        <v>0.83468394609841301</v>
+        <v>0.97290305577120295</v>
       </c>
       <c r="D141">
-        <v>0.82866403548555745</v>
+        <v>0.96429840788139154</v>
       </c>
       <c r="E141">
-        <v>0.8556287956153078</v>
+        <v>0.96172263551125847</v>
       </c>
       <c r="F141">
-        <v>0.91735157610844187</v>
+        <v>0.96943681040481045</v>
       </c>
       <c r="G141">
-        <v>0.13851109126984126</v>
+        <v>0.020712584472578503</v>
       </c>
       <c r="H141">
-        <v>0.23227747479051303</v>
+        <v>0.035703149631492417</v>
       </c>
       <c r="I141">
-        <v>0.16531605390158693</v>
+        <v>0.027096944228796983</v>
       </c>
       <c r="J141">
-        <v>0.17133596451444258</v>
+        <v>0.035701592118608377</v>
       </c>
       <c r="K141">
-        <v>0.1443712043846922</v>
+        <v>0.038277364488741507</v>
       </c>
       <c r="L141">
-        <v>0.08264842389155809</v>
+        <v>0.030563189595189534</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.080258110668592383</v>
+        <v>0.014465042193699389</v>
       </c>
       <c r="B142">
-        <v>0.033153788083628004</v>
+        <v>0.0057670403890936837</v>
       </c>
       <c r="C142">
-        <v>0.024130325096192843</v>
+        <v>0.0042117827856834288</v>
       </c>
       <c r="D142">
-        <v>0.031827896364531177</v>
+        <v>0.0069261191297068378</v>
       </c>
       <c r="E142">
-        <v>0.041097665488026444</v>
+        <v>0.011207191773242095</v>
       </c>
       <c r="F142">
-        <v>0.044391159218842263</v>
+        <v>0.015103514697325616</v>
       </c>
       <c r="G142">
-        <v>0.08025811066859237</v>
+        <v>0.014465042193699392</v>
       </c>
       <c r="H142">
-        <v>0.033153788083628004</v>
+        <v>0.0057670403890936802</v>
       </c>
       <c r="I142">
-        <v>0.02413032509619285</v>
+        <v>0.0042117827856834314</v>
       </c>
       <c r="J142">
-        <v>0.031827896364531177</v>
+        <v>0.0069261191297068404</v>
       </c>
       <c r="K142">
-        <v>0.041097665488026444</v>
+        <v>0.01120719177324209</v>
       </c>
       <c r="L142">
-        <v>0.044391159218842263</v>
+        <v>0.015103514697325619</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>10.733979426546451</v>
+        <v>67.700280608512486</v>
       </c>
       <c r="B143">
-        <v>23.15640442874772</v>
+        <v>167.20827067418043</v>
       </c>
       <c r="C143">
-        <v>34.59066310839323</v>
+        <v>230.99554399582692</v>
       </c>
       <c r="D143">
-        <v>26.035777733932044</v>
+        <v>139.22636758374779</v>
       </c>
       <c r="E143">
-        <v>20.819401429616242</v>
+        <v>85.812989995177404</v>
       </c>
       <c r="F143">
-        <v>20.665186317528356</v>
+        <v>64.186173207516319</v>
       </c>
       <c r="G143">
-        <v>1.7258204823907621</v>
+        <v>1.4319062602942412</v>
       </c>
       <c r="H143">
-        <v>7.006061394993842</v>
+        <v>6.1908964083227707</v>
       </c>
       <c r="I143">
-        <v>6.8509667085948047</v>
+        <v>6.4336043921600421</v>
       </c>
       <c r="J143">
-        <v>5.3832010306964042</v>
+        <v>5.1546315404077534</v>
       </c>
       <c r="K143">
-        <v>3.5128809062586259</v>
+        <v>3.4154287053542922</v>
       </c>
       <c r="L143">
-        <v>1.8618217083296431</v>
+        <v>2.023581279435664</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>4.4114148534963992e-21</v>
+        <v>0</v>
       </c>
       <c r="B144">
-        <v>4.6026378481288269e-79</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>3.403418068717512e-137</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>8.3972518499988197e-74</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>1.5487750626053458e-51</v>
+        <v>1.3151799514067093e-273</v>
       </c>
       <c r="F144">
-        <v>1.6729234448210829e-48</v>
+        <v>2.654940691225823e-183</v>
       </c>
       <c r="G144">
-        <v>0.086099293912007505</v>
+        <v>0.15250755645263619</v>
       </c>
       <c r="H144">
-        <v>8.8229887226224654e-12</v>
+        <v>7.5842430758855564e-10</v>
       </c>
       <c r="I144">
-        <v>2.0711115216658412e-11</v>
+        <v>1.7183638846882982e-10</v>
       </c>
       <c r="J144">
-        <v>1.6584947745858965e-07</v>
+        <v>3.791735737806467e-07</v>
       </c>
       <c r="K144">
-        <v>0.00055033823085822906</v>
+        <v>0.00069699556109247072</v>
       </c>
       <c r="L144">
-        <v>0.064332079996676922</v>
+        <v>0.043854810523737534</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.70311892071355908</v>
+        <v>0.95089940775296589</v>
       </c>
       <c r="B145">
-        <v>0.70256980305464511</v>
+        <v>0.95298511532255425</v>
       </c>
       <c r="C145">
-        <v>0.78727951680798414</v>
+        <v>0.96464081093292375</v>
       </c>
       <c r="D145">
-        <v>0.76598525790858751</v>
+        <v>0.95068737418089333</v>
       </c>
       <c r="E145">
-        <v>0.77457810937041627</v>
+        <v>0.9396952640721683</v>
       </c>
       <c r="F145">
-        <v>0.82973079703497699</v>
+        <v>0.93972062497193021</v>
       </c>
       <c r="G145">
-        <v>-0.019858896746758503</v>
+        <v>-0.0076754233018772634</v>
       </c>
       <c r="H145">
-        <v>0.16712475263567123</v>
+        <v>0.02439141458553918</v>
       </c>
       <c r="I145">
-        <v>0.11791162461115801</v>
+        <v>0.018834699390517805</v>
       </c>
       <c r="J145">
-        <v>0.1086571869374726</v>
+        <v>0.022090558418110147</v>
       </c>
       <c r="K145">
-        <v>0.063320518139800719</v>
+        <v>0.016249993049651364</v>
       </c>
       <c r="L145">
-        <v>-0.0049723551819068068</v>
+        <v>0.00084700416230926862</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1.0198588967467586</v>
+        <v>1.0076754233018772</v>
       </c>
       <c r="B146">
-        <v>0.83287524736432872</v>
+        <v>0.97560858541446083</v>
       </c>
       <c r="C146">
-        <v>0.88208837538884188</v>
+        <v>0.98116530060948215</v>
       </c>
       <c r="D146">
-        <v>0.89134281306252738</v>
+        <v>0.97790944158188975</v>
       </c>
       <c r="E146">
-        <v>0.93667948186019934</v>
+        <v>0.98375000695034864</v>
       </c>
       <c r="F146">
-        <v>1.0049723551819068</v>
+        <v>0.99915299583769068</v>
       </c>
       <c r="G146">
-        <v>0.29688107928644103</v>
+        <v>0.049100592247034267</v>
       </c>
       <c r="H146">
-        <v>0.29743019694535483</v>
+        <v>0.047014884677445655</v>
       </c>
       <c r="I146">
-        <v>0.21272048319201586</v>
+        <v>0.035359189067076163</v>
       </c>
       <c r="J146">
-        <v>0.23401474209141254</v>
+        <v>0.049312625819106608</v>
       </c>
       <c r="K146">
-        <v>0.22542189062958368</v>
+        <v>0.06030473592783165</v>
       </c>
       <c r="L146">
-        <v>0.17026920296502299</v>
+        <v>0.0602793750280698</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>179.62958828253795</v>
+        <v>927.46935655024197</v>
       </c>
       <c r="B147">
-        <v>457.1520961672727</v>
+        <v>1602.5059430709537</v>
       </c>
       <c r="C147">
-        <v>522.24382794926657</v>
+        <v>1369.4619225894173</v>
       </c>
       <c r="D147">
-        <v>255.20078938438994</v>
+        <v>456.46172045971736</v>
       </c>
       <c r="E147">
-        <v>195.8887232002578</v>
+        <v>432.23383697855985</v>
       </c>
       <c r="F147">
-        <v>172.2238448992764</v>
+        <v>315.92385988229319</v>
       </c>
       <c r="G147">
-        <v>179.62958828253838</v>
+        <v>927.46935655023356</v>
       </c>
       <c r="H147">
-        <v>457.15209616727191</v>
+        <v>1602.5059430709859</v>
       </c>
       <c r="I147">
-        <v>522.2438279492643</v>
+        <v>1369.4619225893857</v>
       </c>
       <c r="J147">
-        <v>255.20078938439011</v>
+        <v>456.46172045971417</v>
       </c>
       <c r="K147">
-        <v>195.8887232002576</v>
+        <v>432.23383697856343</v>
       </c>
       <c r="L147">
-        <v>172.22384489927612</v>
+        <v>315.9238598822912</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.9732583622676172</v>
+        <v>1.9625250582968099</v>
       </c>
       <c r="B148">
-        <v>1.9651667553191463</v>
+        <v>1.9614454352262538</v>
       </c>
       <c r="C148">
-        <v>1.9645168103395401</v>
+        <v>1.961697755725665</v>
       </c>
       <c r="D148">
-        <v>1.9693031816836895</v>
+        <v>1.9651746447904859</v>
       </c>
       <c r="E148">
-        <v>1.9721481812271091</v>
+        <v>1.9654675216392696</v>
       </c>
       <c r="F148">
-        <v>1.9738339934198743</v>
+        <v>1.9675013417997411</v>
       </c>
       <c r="G148">
-        <v>1.9732583622676172</v>
+        <v>1.9625250582968135</v>
       </c>
       <c r="H148">
-        <v>1.9651667553191463</v>
+        <v>1.9614454352262538</v>
       </c>
       <c r="I148">
-        <v>1.9645168103395401</v>
+        <v>1.961697755725665</v>
       </c>
       <c r="J148">
-        <v>1.9693031816836895</v>
+        <v>1.9651746447904859</v>
       </c>
       <c r="K148">
-        <v>1.9721481812271091</v>
+        <v>1.9654675216392696</v>
       </c>
       <c r="L148">
-        <v>1.9738339934198743</v>
+        <v>1.9675013417997411</v>
       </c>
     </row>
     <row r="149">
@@ -3404,114 +3404,114 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.68694507505867297</v>
+        <v>0.95360027073699738</v>
       </c>
       <c r="B151">
-        <v>0.63932747315709137</v>
+        <v>0.9219202432952065</v>
       </c>
       <c r="C151">
-        <v>0.31305492494132703</v>
+        <v>0.046399729263002579</v>
       </c>
       <c r="D151">
-        <v>0.36067252684290863</v>
+        <v>0.078079756704793585</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.030041889558005967</v>
+        <v>0.0054197240143160205</v>
       </c>
       <c r="B152">
-        <v>0.021263884375247739</v>
+        <v>0.005710837430730341</v>
       </c>
       <c r="C152">
-        <v>0.03004188955800596</v>
+        <v>0.0054197240143160101</v>
       </c>
       <c r="D152">
-        <v>0.021263884375247739</v>
+        <v>0.0057108374307303427</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>22.866240611539915</v>
+        <v>175.9499687102321</v>
       </c>
       <c r="B153">
-        <v>30.066353911390792</v>
+        <v>161.43345953682751</v>
       </c>
       <c r="C153">
-        <v>10.42061366802076</v>
+        <v>8.5612715961992389</v>
       </c>
       <c r="D153">
-        <v>16.961742289322739</v>
+        <v>13.6722079120379</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>4.6324668983100046e-82</v>
+        <v>0</v>
       </c>
       <c r="B154">
-        <v>4.1989049600565486e-130</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>2.4037434872905361e-23</v>
+        <v>3.9759189833452596e-16</v>
       </c>
       <c r="D154">
-        <v>1.0587613419735169e-54</v>
+        <v>1.8568417523040142e-40</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.62793551525038682</v>
+        <v>0.94293967565274861</v>
       </c>
       <c r="B155">
-        <v>0.59758224650495484</v>
+        <v>0.91071926100203304</v>
       </c>
       <c r="C155">
-        <v>0.25404536513304093</v>
+        <v>0.03573913417875383</v>
       </c>
       <c r="D155">
-        <v>0.31892730019077214</v>
+        <v>0.066878774411620073</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.74595463486695912</v>
+        <v>0.96426086582124615</v>
       </c>
       <c r="B156">
-        <v>0.68107269980922791</v>
+        <v>0.93312122558837995</v>
       </c>
       <c r="C156">
-        <v>0.37206448474961312</v>
+        <v>0.057060324347251327</v>
       </c>
       <c r="D156">
-        <v>0.40241775349504511</v>
+        <v>0.089280738997967096</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>555.63512653890803</v>
+        <v>338.36810304288645</v>
       </c>
       <c r="B157">
-        <v>734.60539806853194</v>
+        <v>1706.0247083653494</v>
       </c>
       <c r="C157">
-        <v>555.63512653890984</v>
+        <v>338.36810304289935</v>
       </c>
       <c r="D157">
-        <v>734.60539806853194</v>
+        <v>1706.0247083653319</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1.9642426184394404</v>
+        <v>1.9669996213993852</v>
       </c>
       <c r="B158">
-        <v>1.9631985349172656</v>
+        <v>1.9613554805290701</v>
       </c>
       <c r="C158">
-        <v>1.9642426184394404</v>
+        <v>1.9669996213993852</v>
       </c>
       <c r="D158">
-        <v>1.9631985349172656</v>
+        <v>1.9613554805290701</v>
       </c>
     </row>
     <row r="159">
@@ -3530,114 +3530,114 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.55112052556843538</v>
+        <v>0.93593517118883029</v>
       </c>
       <c r="B161">
-        <v>0.49800198588263916</v>
+        <v>0.88936667856765206</v>
       </c>
       <c r="C161">
-        <v>0.44887947443156462</v>
+        <v>0.064064828811169733</v>
       </c>
       <c r="D161">
-        <v>0.50199801411736078</v>
+        <v>0.11063332143234798</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.031837900664435259</v>
+        <v>0.0059674011259096722</v>
       </c>
       <c r="B162">
-        <v>0.021833498915510095</v>
+        <v>0.0062791489476190458</v>
       </c>
       <c r="C162">
-        <v>0.031837900664435259</v>
+        <v>0.0059674011259096714</v>
       </c>
       <c r="D162">
-        <v>0.021833498915510095</v>
+        <v>0.0062791489476190449</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>17.310203061977269</v>
+        <v>156.84133703114455</v>
       </c>
       <c r="B163">
-        <v>22.809078279655314</v>
+        <v>141.63809235722715</v>
       </c>
       <c r="C163">
-        <v>14.098903038949061</v>
+        <v>10.735800637401207</v>
       </c>
       <c r="D163">
-        <v>22.992101085582352</v>
+        <v>17.619158640009392</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>1.0444430845726399e-55</v>
+        <v>0</v>
       </c>
       <c r="B164">
-        <v>3.9648755506345859e-88</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>1.0871662197063698e-39</v>
+        <v>3.1891474585282791e-26</v>
       </c>
       <c r="D164">
-        <v>3.3057222763080755e-89</v>
+        <v>1.3696615171239696e-66</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.48860573760380693</v>
+        <v>0.92423264015307305</v>
       </c>
       <c r="B165">
-        <v>0.455140836531223</v>
+        <v>0.87705543605392677</v>
       </c>
       <c r="C165">
-        <v>0.38636468646693617</v>
+        <v>0.052362297775412465</v>
       </c>
       <c r="D165">
-        <v>0.45913686476594462</v>
+        <v>0.098322078918622741</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.61363531353306378</v>
+        <v>0.94763770222458754</v>
       </c>
       <c r="B166">
-        <v>0.54086313523405527</v>
+        <v>0.90167792108137734</v>
       </c>
       <c r="C166">
-        <v>0.51139426239619301</v>
+        <v>0.075767359846926993</v>
       </c>
       <c r="D166">
-        <v>0.54485916346877694</v>
+        <v>0.12294456394607323</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>665.76110805839005</v>
+        <v>2133.2426395040093</v>
       </c>
       <c r="B167">
-        <v>759.78094519798174</v>
+        <v>3436.0055593106017</v>
       </c>
       <c r="C167">
-        <v>665.76110805839039</v>
+        <v>2133.2426395040238</v>
       </c>
       <c r="D167">
-        <v>759.78094519798196</v>
+        <v>3436.0055593106149</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.9635336080579269</v>
+        <v>1.9610766544495248</v>
       </c>
       <c r="B168">
-        <v>1.9630911892444509</v>
+        <v>1.9606546390961932</v>
       </c>
       <c r="C168">
-        <v>1.9635336080579269</v>
+        <v>1.9610766544495248</v>
       </c>
       <c r="D168">
-        <v>1.9630911892444509</v>
+        <v>1.9606546390961894</v>
       </c>
     </row>
     <row r="169">
@@ -3656,114 +3656,114 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.76193439937289165</v>
+        <v>0.96609504924158285</v>
       </c>
       <c r="B171">
-        <v>0.86267054096026941</v>
+        <v>0.96974569722570669</v>
       </c>
       <c r="C171">
-        <v>0.23806560062710838</v>
+        <v>0.033904950758417131</v>
       </c>
       <c r="D171">
-        <v>0.13732945903973057</v>
+        <v>0.03025430277429339</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.02750937903836171</v>
+        <v>0.0044214212042583273</v>
       </c>
       <c r="B172">
-        <v>0.015427519920421606</v>
+        <v>0.0035803196514414748</v>
       </c>
       <c r="C172">
-        <v>0.027509379038361717</v>
+        <v>0.004421421204258329</v>
       </c>
       <c r="D172">
-        <v>0.015427519920421602</v>
+        <v>0.003580319651441473</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>27.697259116986153</v>
+        <v>218.50328313238384</v>
       </c>
       <c r="B173">
-        <v>55.917642330724938</v>
+        <v>270.85450228872071</v>
       </c>
       <c r="C173">
-        <v>8.6539794407982402</v>
+        <v>7.6683376661248257</v>
       </c>
       <c r="D173">
-        <v>8.9015901290748509</v>
+        <v>8.4501680630981379</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>1.6931695558897625e-110</v>
+        <v>0</v>
       </c>
       <c r="B174">
-        <v>1.18934382852885e-262</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>4.2772643056559643e-17</v>
+        <v>2.523060267658106e-14</v>
       </c>
       <c r="D174">
-        <v>4.5257879479816498e-18</v>
+        <v>4.3054511126931806e-17</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.70791151397450458</v>
+        <v>0.95742480448799383</v>
       </c>
       <c r="B175">
-        <v>0.83238165211731507</v>
+        <v>0.96272582021043396</v>
       </c>
       <c r="C175">
-        <v>0.18404271522872126</v>
+        <v>0.025234706004828099</v>
       </c>
       <c r="D175">
-        <v>0.10704057019677626</v>
+        <v>0.02323442575902069</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.81595728477127871</v>
+        <v>0.97476529399517187</v>
       </c>
       <c r="B176">
-        <v>0.89295942980322374</v>
+        <v>0.97676557424097943</v>
       </c>
       <c r="C176">
-        <v>0.29208848602549553</v>
+        <v>0.042575195512006163</v>
       </c>
       <c r="D176">
-        <v>0.16761834788268487</v>
+        <v>0.037274179789566091</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>619.80427915606811</v>
+        <v>2375.0653804635203</v>
       </c>
       <c r="B177">
-        <v>711.7602744924568</v>
+        <v>3293.9477375599477</v>
       </c>
       <c r="C177">
-        <v>619.80427915606515</v>
+        <v>2375.0653804634835</v>
       </c>
       <c r="D177">
-        <v>711.76027449245771</v>
+        <v>3293.9477375600159</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.9637987946966173</v>
+        <v>1.960963308638997</v>
       </c>
       <c r="B178">
-        <v>1.963302526860492</v>
+        <v>1.960684435661052</v>
       </c>
       <c r="C178">
-        <v>1.9637987946966173</v>
+        <v>1.960963308638997</v>
       </c>
       <c r="D178">
-        <v>1.963302526860492</v>
+        <v>1.960684435661052</v>
       </c>
     </row>
     <row r="179">
@@ -3782,114 +3782,114 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.50019428571428581</v>
+        <v>0.94893174573532557</v>
       </c>
       <c r="B181">
-        <v>0.66927930586515405</v>
+        <v>0.93436606059313509</v>
       </c>
       <c r="C181">
-        <v>0.49980571428571424</v>
+        <v>0.051068254264674484</v>
       </c>
       <c r="D181">
-        <v>0.330720694134846</v>
+        <v>0.065633939406864822</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.13324005632009978</v>
+        <v>0.01468522055110086</v>
       </c>
       <c r="B182">
-        <v>0.017346752985812442</v>
+        <v>0.0041107328063806061</v>
       </c>
       <c r="C182">
-        <v>0.13324005632009978</v>
+        <v>0.01468522055110086</v>
       </c>
       <c r="D182">
-        <v>0.017346752985812442</v>
+        <v>0.0041107328063806053</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>3.754083415520364</v>
+        <v>64.618147370227277</v>
       </c>
       <c r="B183">
-        <v>38.582396740908457</v>
+        <v>227.29914703841339</v>
       </c>
       <c r="C183">
-        <v>3.7511670896097979</v>
+        <v>3.4775272245295774</v>
       </c>
       <c r="D183">
-        <v>19.065279502471487</v>
+        <v>15.966481524897217</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.00018685181601931874</v>
+        <v>3.6973523775588345e-269</v>
       </c>
       <c r="B184">
-        <v>2.2808538523816835e-183</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>0.00018899981810901079</v>
+        <v>0.00054347739681689109</v>
       </c>
       <c r="D184">
-        <v>7.1402882836940442e-67</v>
+        <v>7.9304486266538604e-56</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.23864422289656151</v>
+        <v>0.92008982310197762</v>
       </c>
       <c r="B185">
-        <v>0.63522772842901498</v>
+        <v>0.92630695129181206</v>
       </c>
       <c r="C185">
-        <v>0.23825565146798994</v>
+        <v>0.022226331631326545</v>
       </c>
       <c r="D185">
-        <v>0.29666911669870688</v>
+        <v>0.057574830105541756</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.76174434853201012</v>
+        <v>0.97777366836867352</v>
       </c>
       <c r="B186">
-        <v>0.70333088330129312</v>
+        <v>0.94242516989445813</v>
       </c>
       <c r="C186">
-        <v>0.76135577710343849</v>
+        <v>0.07991017689802242</v>
       </c>
       <c r="D186">
-        <v>0.36477227157098513</v>
+        <v>0.07369304870818788</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>782.89002846425649</v>
+        <v>587.48619913555501</v>
       </c>
       <c r="B187">
-        <v>784.03265013658176</v>
+        <v>4391.8022045125481</v>
       </c>
       <c r="C187">
-        <v>782.89002846425649</v>
+        <v>587.48619913555467</v>
       </c>
       <c r="D187">
-        <v>784.03265013658176</v>
+        <v>4391.8022045125508</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.9629987410795506</v>
+        <v>1.9640101783276138</v>
       </c>
       <c r="B188">
-        <v>1.9629943116149287</v>
+        <v>1.9605042898467786</v>
       </c>
       <c r="C188">
-        <v>1.9629987410795506</v>
+        <v>1.9640101783276138</v>
       </c>
       <c r="D188">
-        <v>1.9629943116149287</v>
+        <v>1.9605042898467786</v>
       </c>
     </row>
     <row r="189">
@@ -3908,114 +3908,114 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.75544314814814817</v>
+        <v>0.98008812078329122</v>
       </c>
       <c r="B191">
-        <v>0.50222345687364733</v>
+        <v>0.90106452375164436</v>
       </c>
       <c r="C191">
-        <v>0.24455685185185186</v>
+        <v>0.019911879216708929</v>
       </c>
       <c r="D191">
-        <v>0.49777654312635267</v>
+        <v>0.098935476248355581</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.13068923481385275</v>
+        <v>0.011028655764608535</v>
       </c>
       <c r="B192">
-        <v>0.018227793360435219</v>
+        <v>0.0048071731605409196</v>
       </c>
       <c r="C192">
-        <v>0.13068923481385272</v>
+        <v>0.011028655764608538</v>
       </c>
       <c r="D192">
-        <v>0.018227793360435219</v>
+        <v>0.0048071731605409188</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>5.7804542908539007</v>
+        <v>88.867414279847168</v>
       </c>
       <c r="B193">
-        <v>27.552619614602428</v>
+        <v>187.44166137968983</v>
       </c>
       <c r="C193">
-        <v>1.871285360268476</v>
+        <v>1.8054674696264492</v>
       </c>
       <c r="D193">
-        <v>27.308656252753757</v>
+        <v>20.580801428260397</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>1.0760426040992054e-08</v>
+        <v>0</v>
       </c>
       <c r="B194">
-        <v>2.0873731644984174e-117</v>
+        <v>0</v>
       </c>
       <c r="C194">
-        <v>0.06167864942934935</v>
+        <v>0.071070880066378614</v>
       </c>
       <c r="D194">
-        <v>6.3779295110212101e-116</v>
+        <v>6.2947826706387721e-90</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.49889996696397276</v>
+        <v>0.95846631830255236</v>
       </c>
       <c r="B195">
-        <v>0.46644240822582195</v>
+        <v>0.89164004072531677</v>
       </c>
       <c r="C195">
-        <v>-0.011986329332323492</v>
+        <v>-0.0017099232640299458</v>
       </c>
       <c r="D195">
-        <v>0.46199549447852728</v>
+        <v>0.089510993222028046</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>1.0119863293323235</v>
+        <v>1.0017099232640301</v>
       </c>
       <c r="B196">
-        <v>0.53800450552147272</v>
+        <v>0.91048900677797195</v>
       </c>
       <c r="C196">
-        <v>0.50110003303602724</v>
+        <v>0.041533681697447804</v>
       </c>
       <c r="D196">
-        <v>0.53355759177417805</v>
+        <v>0.10835995927468312</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>782.14616492301309</v>
+        <v>4336.8371993356886</v>
       </c>
       <c r="B197">
-        <v>784.11814899684884</v>
+        <v>4392.7777110581783</v>
       </c>
       <c r="C197">
-        <v>782.14616492301309</v>
+        <v>4336.8371993356768</v>
       </c>
       <c r="D197">
-        <v>784.11814899684896</v>
+        <v>4392.7777110581801</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.9630016316920269</v>
+        <v>1.9605111395465102</v>
       </c>
       <c r="B198">
-        <v>1.9629939806916405</v>
+        <v>1.9605041698283787</v>
       </c>
       <c r="C198">
-        <v>1.9630016316920269</v>
+        <v>1.9605111395465102</v>
       </c>
       <c r="D198">
-        <v>1.9629939806916405</v>
+        <v>1.9605041698283787</v>
       </c>
     </row>
     <row r="199">
@@ -4034,114 +4034,114 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.74436256613756613</v>
+        <v>0.97813269704604111</v>
       </c>
       <c r="B201">
-        <v>0.82849723726119873</v>
+        <v>0.96587663185642403</v>
       </c>
       <c r="C201">
-        <v>0.25563743386243387</v>
+        <v>0.021867302953958938</v>
       </c>
       <c r="D201">
-        <v>0.1715027627388013</v>
+        <v>0.034123368143576027</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.13095793696790639</v>
+        <v>0.011190224317216033</v>
       </c>
       <c r="B202">
-        <v>0.013998774433179855</v>
+        <v>0.003044078323218766</v>
       </c>
       <c r="C202">
-        <v>0.13095793696790639</v>
+        <v>0.011190224317216028</v>
       </c>
       <c r="D202">
-        <v>0.013998774433179855</v>
+        <v>0.0030440783232187668</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>5.6839820737248301</v>
+        <v>87.409570113906923</v>
       </c>
       <c r="B203">
-        <v>59.183555047325925</v>
+        <v>317.29690543412812</v>
       </c>
       <c r="C203">
-        <v>1.952057582619696</v>
+        <v>1.9541433964211379</v>
       </c>
       <c r="D203">
-        <v>12.25126982061415</v>
+        <v>11.209753666093073</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>1.8553553483325581e-08</v>
+        <v>0</v>
       </c>
       <c r="B204">
-        <v>1.268263360115543e-291</v>
+        <v>0</v>
       </c>
       <c r="C204">
-        <v>0.051286599902244184</v>
+        <v>0.050749255643877111</v>
       </c>
       <c r="D204">
-        <v>1.0586816015802525e-31</v>
+        <v>8.9801008559484507e-29</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.48729331600107578</v>
+        <v>0.95619406009368257</v>
       </c>
       <c r="B205">
-        <v>0.80101777037101163</v>
+        <v>0.95990869649380905</v>
       </c>
       <c r="C205">
-        <v>-0.0014318162740564744</v>
+        <v>-7.1333998399640552e-05</v>
       </c>
       <c r="D205">
-        <v>0.1440232958486142</v>
+        <v>0.028155432780961005</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>1.0014318162740565</v>
+        <v>1.0000713339983998</v>
       </c>
       <c r="B206">
-        <v>0.85597670415138583</v>
+        <v>0.971844567219039</v>
       </c>
       <c r="C206">
-        <v>0.51270668399892427</v>
+        <v>0.043805939906317516</v>
       </c>
       <c r="D206">
-        <v>0.1989822296289884</v>
+        <v>0.040091303506191049</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>784.89208210490972</v>
+        <v>4282.6272445391996</v>
       </c>
       <c r="B207">
-        <v>784.91375402768233</v>
+        <v>4373.8532404854832</v>
       </c>
       <c r="C207">
-        <v>784.89208210490972</v>
+        <v>4282.6272445392251</v>
       </c>
       <c r="D207">
-        <v>784.91375402768233</v>
+        <v>4373.8532404854723</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1.9629909884689909</v>
+        <v>1.9605180674176694</v>
       </c>
       <c r="B208">
-        <v>1.9629909047648726</v>
+        <v>1.9605065076987271</v>
       </c>
       <c r="C208">
-        <v>1.9629909884689909</v>
+        <v>1.9605180674176694</v>
       </c>
       <c r="D208">
-        <v>1.9629909047648726</v>
+        <v>1.9605065076987271</v>
       </c>
     </row>
     <row r="209">
@@ -4160,114 +4160,162 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.60935292654070361</v>
+        <v>0.89452482972909153</v>
       </c>
       <c r="B211">
-        <v>0.80846147575816474</v>
+        <v>0.92175322584520814</v>
       </c>
       <c r="C211">
-        <v>0.39064707345929633</v>
+        <v>0.9533489351338128</v>
       </c>
       <c r="D211">
-        <v>0.19153852424183521</v>
+        <v>0.10547517027090843</v>
+      </c>
+      <c r="E211">
+        <v>0.078246774154791851</v>
+      </c>
+      <c r="F211">
+        <v>0.04665106486618717</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.019779558779343412</v>
+        <v>0.0099685129646645658</v>
       </c>
       <c r="B212">
-        <v>0.032783936450964286</v>
+        <v>0.012939949168840486</v>
       </c>
       <c r="C212">
-        <v>0.019779558779343412</v>
+        <v>0.0041383002504314561</v>
       </c>
       <c r="D212">
-        <v>0.032783936450964279</v>
+        <v>0.0099685129646645606</v>
+      </c>
+      <c r="E212">
+        <v>0.012939949168840489</v>
+      </c>
+      <c r="F212">
+        <v>0.004138300250431457</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>30.807205223256819</v>
+        <v>89.735031985203591</v>
       </c>
       <c r="B213">
-        <v>24.660292914104435</v>
+        <v>71.233141167571063</v>
       </c>
       <c r="C213">
-        <v>19.750039817231148</v>
+        <v>230.37210386907461</v>
       </c>
       <c r="D213">
-        <v>5.842450449119311</v>
+        <v>10.580832933135245</v>
+      </c>
+      <c r="E213">
+        <v>6.0469151102394409</v>
+      </c>
+      <c r="F213">
+        <v>11.273001484443608</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>8.6921368826980915e-137</v>
+        <v>0</v>
       </c>
       <c r="B214">
-        <v>1.1631292402964383e-94</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>1.1548144905696226e-70</v>
+        <v>0</v>
       </c>
       <c r="D214">
-        <v>8.2258208166165508e-09</v>
+        <v>9.0710358998238406e-26</v>
+      </c>
+      <c r="E214">
+        <v>1.8928851453659694e-09</v>
+      </c>
+      <c r="F214">
+        <v>5.546316093605778e-29</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.57052518853025214</v>
+        <v>0.87498001932748126</v>
       </c>
       <c r="B215">
-        <v>0.74408324505231671</v>
+        <v>0.89636935262758821</v>
       </c>
       <c r="C215">
-        <v>0.35181933544884486</v>
+        <v>0.94523523430413148</v>
       </c>
       <c r="D215">
-        <v>0.12716029353598715</v>
+        <v>0.085930359869298131</v>
+      </c>
+      <c r="E215">
+        <v>0.052862900937171969</v>
+      </c>
+      <c r="F215">
+        <v>0.038537364036505803</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.64818066455115508</v>
+        <v>0.9140696401307018</v>
       </c>
       <c r="B216">
-        <v>0.87283970646401277</v>
+        <v>0.94713709906282806</v>
       </c>
       <c r="C216">
-        <v>0.42947481146974781</v>
+        <v>0.96146263596349413</v>
       </c>
       <c r="D216">
-        <v>0.25591675494768329</v>
+        <v>0.12501998067251874</v>
+      </c>
+      <c r="E216">
+        <v>0.10363064737241173</v>
+      </c>
+      <c r="F216">
+        <v>0.054764765695868536</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>776.57304523069422</v>
+        <v>3436.3984617827327</v>
       </c>
       <c r="B217">
-        <v>634.02022658691169</v>
+        <v>1394.0489954693314</v>
       </c>
       <c r="C217">
-        <v>776.57304523069411</v>
+        <v>3530.7918672989204</v>
       </c>
       <c r="D217">
-        <v>634.02022658691214</v>
+        <v>3436.3984617828019</v>
+      </c>
+      <c r="E217">
+        <v>1394.0489954693157</v>
+      </c>
+      <c r="F217">
+        <v>3530.7918672988967</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1.9630234649622633</v>
+        <v>1.9606545601024834</v>
       </c>
       <c r="B218">
-        <v>1.9637126493988946</v>
+        <v>1.9616671508064709</v>
       </c>
       <c r="C218">
-        <v>1.9630234649622633</v>
+        <v>1.9606360917952819</v>
       </c>
       <c r="D218">
-        <v>1.9637126493988946</v>
+        <v>1.9606545601024834</v>
+      </c>
+      <c r="E218">
+        <v>1.9616671508064709</v>
+      </c>
+      <c r="F218">
+        <v>1.9606360917952819</v>
       </c>
     </row>
     <row r="219">
@@ -4283,117 +4331,171 @@
       <c r="D219">
         <v>0</v>
       </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.55862796477045595</v>
+        <v>0.93564982870305435</v>
       </c>
       <c r="B221">
-        <v>0.37585287067105982</v>
+        <v>0.88650366137564518</v>
       </c>
       <c r="C221">
-        <v>0.44137203522954405</v>
+        <v>0.9045699886192835</v>
       </c>
       <c r="D221">
-        <v>0.62414712932894023</v>
+        <v>0.064350171296945619</v>
+      </c>
+      <c r="E221">
+        <v>0.11349633862435489</v>
+      </c>
+      <c r="F221">
+        <v>0.095430011380716523</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.019976091523713449</v>
+        <v>0.0080393381668722938</v>
       </c>
       <c r="B222">
-        <v>0.039932166266013591</v>
+        <v>0.01412691225237607</v>
       </c>
       <c r="C222">
-        <v>0.019976091523713449</v>
+        <v>0.0056842006961285944</v>
       </c>
       <c r="D222">
-        <v>0.039932166266013584</v>
+        <v>0.0080393381668722851</v>
+      </c>
+      <c r="E222">
+        <v>0.01412691225237607</v>
+      </c>
+      <c r="F222">
+        <v>0.0056842006961285892</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>27.964828059949237</v>
+        <v>116.38393724480794</v>
       </c>
       <c r="B223">
-        <v>9.4122835251978181</v>
+        <v>62.752825637926655</v>
       </c>
       <c r="C223">
-        <v>22.095014668189471</v>
+        <v>159.13758802277508</v>
       </c>
       <c r="D223">
-        <v>15.630184577793722</v>
+        <v>8.0044115524476229</v>
+      </c>
+      <c r="E223">
+        <v>8.0340513621626997</v>
+      </c>
+      <c r="F223">
+        <v>16.788642147296496</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>7.1981679441264684e-119</v>
+        <v>0</v>
       </c>
       <c r="B224">
-        <v>1.2646428516112388e-19</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>6.2357628755963422e-84</v>
+        <v>0</v>
       </c>
       <c r="D224">
-        <v>6.214415717565975e-46</v>
+        <v>5.7559112789594371e-15</v>
+      </c>
+      <c r="E224">
+        <v>1.6746011500585994e-15</v>
+      </c>
+      <c r="F224">
+        <v>3.3498975369316623e-60</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.5194130648260078</v>
+        <v>0.91986282644864215</v>
       </c>
       <c r="B225">
-        <v>0.29741694445925437</v>
+        <v>0.85879706834398373</v>
       </c>
       <c r="C225">
-        <v>0.40215713528509595</v>
+        <v>0.89342408445480437</v>
       </c>
       <c r="D225">
-        <v>0.54571120311713484</v>
+        <v>0.048563169042533369</v>
+      </c>
+      <c r="E225">
+        <v>0.085789745592693409</v>
+      </c>
+      <c r="F225">
+        <v>0.0842841072162374</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.59784286471490411</v>
+        <v>0.95143683095746656</v>
       </c>
       <c r="B226">
-        <v>0.45428879688286528</v>
+        <v>0.91421025440730663</v>
       </c>
       <c r="C226">
-        <v>0.48058693517399215</v>
+        <v>0.91571589278376264</v>
       </c>
       <c r="D226">
-        <v>0.70258305554074563</v>
+        <v>0.080137173551357868</v>
+      </c>
+      <c r="E226">
+        <v>0.14120293165601636</v>
+      </c>
+      <c r="F226">
+        <v>0.10657591554519565</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>759.65129122377937</v>
+        <v>632.92592319011555</v>
       </c>
       <c r="B227">
-        <v>557.38199523169101</v>
+        <v>1827.12536248212</v>
       </c>
       <c r="C227">
-        <v>759.65129122377925</v>
+        <v>2657.95546644658</v>
       </c>
       <c r="D227">
-        <v>557.38199523169249</v>
+        <v>632.92592319013863</v>
+      </c>
+      <c r="E227">
+        <v>1827.12536248212</v>
+      </c>
+      <c r="F227">
+        <v>2657.9554664466923</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1.9630917238187677</v>
+        <v>1.9637191428848924</v>
       </c>
       <c r="B228">
-        <v>1.964229180287735</v>
+        <v>1.9612631930237536</v>
       </c>
       <c r="C228">
-        <v>1.9630917238187677</v>
+        <v>1.9608569014937147</v>
       </c>
       <c r="D228">
-        <v>1.964229180287735</v>
+        <v>1.9637191428848924</v>
+      </c>
+      <c r="E228">
+        <v>1.9612631930237536</v>
+      </c>
+      <c r="F228">
+        <v>1.9608569014937147</v>
       </c>
     </row>
     <row r="229">
@@ -4409,117 +4511,171 @@
       <c r="D229">
         <v>0</v>
       </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.83201910868884033</v>
+        <v>0.96905237414532108</v>
       </c>
       <c r="B231">
-        <v>0.81568565357077549</v>
+        <v>0.98003393896550361</v>
       </c>
       <c r="C231">
-        <v>0.16798089131115962</v>
+        <v>0.96552277506007855</v>
       </c>
       <c r="D231">
-        <v>0.18431434642922459</v>
+        <v>0.030947625854679011</v>
+      </c>
+      <c r="E231">
+        <v>0.019966061034496364</v>
+      </c>
+      <c r="F231">
+        <v>0.034477224939921593</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.015394350117747641</v>
+        <v>0.005759075237046077</v>
       </c>
       <c r="B232">
-        <v>0.032259495213455933</v>
+        <v>0.0067019900391181502</v>
       </c>
       <c r="C232">
-        <v>0.015394350117747643</v>
+        <v>0.0035791863846095957</v>
       </c>
       <c r="D232">
-        <v>0.032259495213455933</v>
+        <v>0.0057590752370460735</v>
+      </c>
+      <c r="E232">
+        <v>0.0067019900391181554</v>
+      </c>
+      <c r="F232">
+        <v>0.0035791863846096001</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>54.047043384418856</v>
+        <v>168.26527424259936</v>
       </c>
       <c r="B233">
-        <v>25.285133824119495</v>
+        <v>146.23028880157165</v>
       </c>
       <c r="C233">
-        <v>10.911853376486478</v>
+        <v>269.76040678177594</v>
       </c>
       <c r="D233">
-        <v>5.7134913367256983</v>
+        <v>5.3737144560300223</v>
+      </c>
+      <c r="E233">
+        <v>2.9791242478664572</v>
+      </c>
+      <c r="F233">
+        <v>9.6326989530840539</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>5.2057856892403799e-259</v>
+        <v>0</v>
       </c>
       <c r="B234">
-        <v>1.7614939438316559e-91</v>
+        <v>9.2336706116003312e-311</v>
       </c>
       <c r="C234">
-        <v>8.3136037688442302e-26</v>
+        <v>0</v>
       </c>
       <c r="D234">
-        <v>1.9025985863977434e-08</v>
+        <v>8.806290107685761e-08</v>
+      </c>
+      <c r="E234">
+        <v>0.0030970432438737891</v>
+      </c>
+      <c r="F234">
+        <v>1.0256661679801954e-21</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.80179726046259736</v>
+        <v>0.95775656456446434</v>
       </c>
       <c r="B235">
-        <v>0.75230483979780205</v>
+        <v>0.96685170305623447</v>
       </c>
       <c r="C235">
-        <v>0.13775904308491665</v>
+        <v>0.95850547320066426</v>
       </c>
       <c r="D235">
-        <v>0.12093353265625116</v>
+        <v>0.019651816273822266</v>
+      </c>
+      <c r="E235">
+        <v>0.0067838251252272195</v>
+      </c>
+      <c r="F235">
+        <v>0.027459923080507272</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.86224095691508329</v>
+        <v>0.98034818372617782</v>
       </c>
       <c r="B236">
-        <v>0.87906646734374894</v>
+        <v>0.99321617487477276</v>
       </c>
       <c r="C236">
-        <v>0.19820273953740258</v>
+        <v>0.97254007691949285</v>
       </c>
       <c r="D236">
-        <v>0.24769516020219801</v>
+        <v>0.042243435435535756</v>
+      </c>
+      <c r="E236">
+        <v>0.033148296943765511</v>
+      </c>
+      <c r="F236">
+        <v>0.041494526799335914</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>739.30996305338806</v>
+        <v>1661.319043757188</v>
       </c>
       <c r="B237">
-        <v>500.1835017342197</v>
+        <v>342.53761310144074</v>
       </c>
       <c r="C237">
-        <v>739.30996305338738</v>
+        <v>3816.5055650296863</v>
       </c>
       <c r="D237">
-        <v>500.18350173421959</v>
+        <v>1661.3190437572357</v>
+      </c>
+      <c r="E237">
+        <v>342.53761310143528</v>
+      </c>
+      <c r="F237">
+        <v>3816.5055650295521</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1.9631779188522662</v>
+        <v>1.9613929521522548</v>
       </c>
       <c r="B238">
-        <v>1.9647180885377376</v>
+        <v>1.9669136827012739</v>
       </c>
       <c r="C238">
-        <v>1.9631779188522662</v>
+        <v>1.9605857603807721</v>
       </c>
       <c r="D238">
-        <v>1.9647180885377376</v>
+        <v>1.9613929521522548</v>
+      </c>
+      <c r="E238">
+        <v>1.9669136827012739</v>
+      </c>
+      <c r="F238">
+        <v>1.9605857603807721</v>
       </c>
     </row>
     <row r="239">
@@ -4535,165 +4691,171 @@
       <c r="D239">
         <v>0</v>
       </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.48982740364474237</v>
+        <v>0.90668865920208686</v>
       </c>
       <c r="B241">
-        <v>0.70186285453775765</v>
+        <v>0.94162023923444971</v>
       </c>
       <c r="C241">
-        <v>0.67118061805139217</v>
+        <v>0.94081594938090751</v>
       </c>
       <c r="D241">
-        <v>0.51017259635525769</v>
+        <v>0.093311340797913242</v>
       </c>
       <c r="E241">
-        <v>0.29813714546224235</v>
+        <v>0.058379760765550237</v>
       </c>
       <c r="F241">
-        <v>0.32881938194860794</v>
+        <v>0.059184050619092418</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.049009420725214227</v>
+        <v>0.011439480948386012</v>
       </c>
       <c r="B242">
-        <v>0.028472041014460624</v>
+        <v>0.0065820194546842015</v>
       </c>
       <c r="C242">
-        <v>0.025091096298374378</v>
+        <v>0.0053669050905194937</v>
       </c>
       <c r="D242">
-        <v>0.049009420725214227</v>
+        <v>0.011439480948386012</v>
       </c>
       <c r="E242">
-        <v>0.028472041014460624</v>
+        <v>0.0065820194546842015</v>
       </c>
       <c r="F242">
-        <v>0.025091096298374378</v>
+        <v>0.0053669050905194937</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>9.9945560750677753</v>
+        <v>79.259597816805737</v>
       </c>
       <c r="B243">
-        <v>24.650949827632292</v>
+        <v>143.05947372494171</v>
       </c>
       <c r="C243">
-        <v>26.749752584341131</v>
+        <v>175.29953176232533</v>
       </c>
       <c r="D243">
-        <v>10.409684277145221</v>
+        <v>8.1569558285840298</v>
       </c>
       <c r="E243">
-        <v>10.471224922400959</v>
+        <v>8.8695819220047021</v>
       </c>
       <c r="F243">
-        <v>13.10502251629044</v>
+        <v>11.027594045521615</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>3.2053567401719538e-22</v>
+        <v>0</v>
       </c>
       <c r="B244">
-        <v>8.1192626344174376e-100</v>
+        <v>0</v>
       </c>
       <c r="C244">
-        <v>1.4873045514273221e-112</v>
+        <v>0</v>
       </c>
       <c r="D244">
-        <v>7.3564142827200018e-24</v>
+        <v>4.4407782859233866e-16</v>
       </c>
       <c r="E244">
-        <v>4.163379891149428e-24</v>
+        <v>1.048661645807369e-18</v>
       </c>
       <c r="F244">
-        <v>1.2567340394103021e-35</v>
+        <v>6.5094365759887098e-28</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.39362237427393187</v>
+        <v>0.88426151644361406</v>
       </c>
       <c r="B245">
-        <v>0.64597250730429456</v>
+        <v>0.92871616687178926</v>
       </c>
       <c r="C245">
-        <v>0.62192703331989485</v>
+        <v>0.93029411301618703</v>
       </c>
       <c r="D245">
-        <v>0.4139675669844472</v>
+        <v>0.070884198039440405</v>
       </c>
       <c r="E245">
-        <v>0.24224679822877926</v>
+        <v>0.04547568840288984</v>
       </c>
       <c r="F245">
-        <v>0.27956579721711056</v>
+        <v>0.048662214254371922</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.58603243301555286</v>
+        <v>0.92911580196055965</v>
       </c>
       <c r="B246">
-        <v>0.75775320177122074</v>
+        <v>0.95452431159711015</v>
       </c>
       <c r="C246">
-        <v>0.7204342027828895</v>
+        <v>0.951337785745628</v>
       </c>
       <c r="D246">
-        <v>0.60637762572606824</v>
+        <v>0.11573848355638608</v>
       </c>
       <c r="E246">
-        <v>0.35402749269570544</v>
+        <v>0.071283833128210641</v>
       </c>
       <c r="F246">
-        <v>0.37807296668010532</v>
+        <v>0.069705886983812915</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B247">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C247">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D247">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E247">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F247">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B248">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C248">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D248">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E248">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F248">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="249">
@@ -4718,162 +4880,162 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.6412721106514454</v>
+        <v>0.93460337555673245</v>
       </c>
       <c r="B251">
-        <v>0.49126209498843992</v>
+        <v>0.90062806778309423</v>
       </c>
       <c r="C251">
-        <v>0.48973438620849247</v>
+        <v>0.90625046791649644</v>
       </c>
       <c r="D251">
-        <v>0.35872788934855465</v>
+        <v>0.065396624443267548</v>
       </c>
       <c r="E251">
-        <v>0.50873790501156013</v>
+        <v>0.099371932216905906</v>
       </c>
       <c r="F251">
-        <v>0.51026561379150759</v>
+        <v>0.093749532083503492</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.047608740618862354</v>
+        <v>0.0099169503904265287</v>
       </c>
       <c r="B252">
-        <v>0.030595631513284909</v>
+        <v>0.0079162910141287856</v>
       </c>
       <c r="C252">
-        <v>0.026364392669232732</v>
+        <v>0.0064313586095485148</v>
       </c>
       <c r="D252">
-        <v>0.047608740618862354</v>
+        <v>0.0099169503904265287</v>
       </c>
       <c r="E252">
-        <v>0.030595631513284909</v>
+        <v>0.0079162910141287856</v>
       </c>
       <c r="F252">
-        <v>0.026364392669232732</v>
+        <v>0.0064313586095485148</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>13.469629784690765</v>
+        <v>94.243022175341864</v>
       </c>
       <c r="B253">
-        <v>16.056609087317884</v>
+        <v>113.7689438369152</v>
       </c>
       <c r="C253">
-        <v>18.575599004031407</v>
+        <v>140.91120133948118</v>
       </c>
       <c r="D253">
-        <v>7.5349165864393477</v>
+        <v>6.5944289190353444</v>
       </c>
       <c r="E253">
-        <v>16.627795533184578</v>
+        <v>12.552839712379134</v>
       </c>
       <c r="F253">
-        <v>19.354347365148598</v>
+        <v>14.576940546328013</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>2.3550542894985606e-37</v>
+        <v>0</v>
       </c>
       <c r="B254">
-        <v>2.2188500775528636e-50</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>4.0337011537049187e-64</v>
+        <v>0</v>
       </c>
       <c r="D254">
-        <v>1.3473127569056402e-13</v>
+        <v>4.7732837553405953e-11</v>
       </c>
       <c r="E254">
-        <v>2.0428869251268597e-53</v>
+        <v>1.5491741642976282e-35</v>
       </c>
       <c r="F254">
-        <v>1.5675005724512397e-68</v>
+        <v>4.846822810191146e-47</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.54781660308229463</v>
+        <v>0.91516115932871656</v>
       </c>
       <c r="B255">
-        <v>0.43120315968991008</v>
+        <v>0.88510815132075416</v>
       </c>
       <c r="C255">
-        <v>0.43798133274336137</v>
+        <v>0.89364176667226491</v>
       </c>
       <c r="D255">
-        <v>0.26527238177940393</v>
+        <v>0.045954408215251694</v>
       </c>
       <c r="E255">
-        <v>0.44867896971303028</v>
+        <v>0.083852015754565815</v>
       </c>
       <c r="F255">
-        <v>0.45851256032637649</v>
+        <v>0.081140830839271941</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.73472761822059618</v>
+        <v>0.95404559178474835</v>
       </c>
       <c r="B256">
-        <v>0.55132103028696977</v>
+        <v>0.91614798424543431</v>
       </c>
       <c r="C256">
-        <v>0.54148743967362356</v>
+        <v>0.91885916916072796</v>
       </c>
       <c r="D256">
-        <v>0.45218339691770537</v>
+        <v>0.084838840671283403</v>
       </c>
       <c r="E256">
-        <v>0.56879684031009003</v>
+        <v>0.114891848679246</v>
       </c>
       <c r="F256">
-        <v>0.56201866725663874</v>
+        <v>0.10635823332773504</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B257">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C257">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D257">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E257">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F257">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B258">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C258">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D258">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E258">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F258">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="259">
@@ -4898,162 +5060,162 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.86890048570381229</v>
+        <v>0.9745271227218224</v>
       </c>
       <c r="B261">
-        <v>0.80687505047380248</v>
+        <v>0.96208344417862846</v>
       </c>
       <c r="C261">
-        <v>0.83908499574011552</v>
+        <v>0.97166985161897812</v>
       </c>
       <c r="D261">
-        <v>0.13109951429618769</v>
+        <v>0.025472877278177635</v>
       </c>
       <c r="E261">
-        <v>0.19312494952619755</v>
+        <v>0.037916555821371614</v>
       </c>
       <c r="F261">
-        <v>0.1609150042598845</v>
+        <v>0.028330148381021915</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.028948062305716539</v>
+        <v>0.0056534180156453239</v>
       </c>
       <c r="B262">
-        <v>0.024592182510543611</v>
+        <v>0.0052937130257785818</v>
       </c>
       <c r="C262">
-        <v>0.019651052663728734</v>
+        <v>0.0037774725168563525</v>
       </c>
       <c r="D262">
-        <v>0.028948062305716539</v>
+        <v>0.0056534180156453239</v>
       </c>
       <c r="E262">
-        <v>0.024592182510543611</v>
+        <v>0.0052937130257785818</v>
       </c>
       <c r="F262">
-        <v>0.019651052663728734</v>
+        <v>0.0037774725168563525</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>30.015842736811628</v>
+        <v>172.37839480910603</v>
       </c>
       <c r="B263">
-        <v>32.810225368483025</v>
+        <v>181.74076295666376</v>
       </c>
       <c r="C263">
-        <v>42.69923907378616</v>
+        <v>257.22751053331575</v>
       </c>
       <c r="D263">
-        <v>4.5287837545623466</v>
+        <v>4.5057480638586691</v>
       </c>
       <c r="E263">
-        <v>7.8531032958704445</v>
+        <v>7.1625635233211327</v>
       </c>
       <c r="F263">
-        <v>8.1886200710711101</v>
+        <v>7.4997629379441593</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>1.9466848018771974e-132</v>
+        <v>0</v>
       </c>
       <c r="B264">
-        <v>2.4351026767256451e-149</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>7.1114611442721554e-207</v>
+        <v>0</v>
       </c>
       <c r="D264">
-        <v>6.8536169326003879e-06</v>
+        <v>6.7855863826689526e-06</v>
       </c>
       <c r="E264">
-        <v>1.3325912896143111e-14</v>
+        <v>9.2384244993137736e-13</v>
       </c>
       <c r="F264">
-        <v>1.0671943063466438e-15</v>
+        <v>7.6896622108748018e-14</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.81207571317764526</v>
+        <v>0.96344357675655823</v>
       </c>
       <c r="B265">
-        <v>0.75860082878927682</v>
+        <v>0.95170510111505846</v>
       </c>
       <c r="C265">
-        <v>0.80051016521352802</v>
+        <v>0.96426410342253588</v>
       </c>
       <c r="D265">
-        <v>0.074274741770020705</v>
+        <v>0.014389331312913485</v>
       </c>
       <c r="E265">
-        <v>0.14485072784167183</v>
+        <v>0.027538212757801585</v>
       </c>
       <c r="F265">
-        <v>0.12234017373329695</v>
+        <v>0.020924400184579674</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.92572525822997931</v>
+        <v>0.98561066868708658</v>
       </c>
       <c r="B266">
-        <v>0.85514927215832814</v>
+        <v>0.97246178724219845</v>
       </c>
       <c r="C266">
-        <v>0.87765982626670302</v>
+        <v>0.97907559981542036</v>
       </c>
       <c r="D266">
-        <v>0.18792428682235468</v>
+        <v>0.036556423243441785</v>
       </c>
       <c r="E266">
-        <v>0.24139917121072327</v>
+        <v>0.048294898884941644</v>
       </c>
       <c r="F266">
-        <v>0.19948983478647206</v>
+        <v>0.035735896577464156</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B267">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C267">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D267">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E267">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F267">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B268">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C268">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D268">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E268">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F268">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="269">
@@ -5078,162 +5240,162 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.73297015859316006</v>
+        <v>0.95668255946214642</v>
       </c>
       <c r="B271">
-        <v>0.69456467255094256</v>
+        <v>0.938293740791593</v>
       </c>
       <c r="C271">
-        <v>0.61660204081632664</v>
+        <v>0.926627172903143</v>
       </c>
       <c r="D271">
-        <v>0.26702984140684005</v>
+        <v>0.043317440537853656</v>
       </c>
       <c r="E271">
-        <v>0.30543532744905744</v>
+        <v>0.061706259208407041</v>
       </c>
       <c r="F271">
-        <v>0.38339795918367348</v>
+        <v>0.073372827096856968</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.035639692862637469</v>
+        <v>0.0066208071262988995</v>
       </c>
       <c r="B272">
-        <v>0.030190764134056802</v>
+        <v>0.0072733683679127564</v>
       </c>
       <c r="C272">
-        <v>0.025031334700925497</v>
+        <v>0.0057916297049261326</v>
       </c>
       <c r="D272">
-        <v>0.035639692862637469</v>
+        <v>0.0066208071262988995</v>
       </c>
       <c r="E272">
-        <v>0.030190764134056802</v>
+        <v>0.0072733683679127564</v>
       </c>
       <c r="F272">
-        <v>0.025031334700925497</v>
+        <v>0.0057916297049261326</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>20.566118833239507</v>
+        <v>144.49636444808232</v>
       </c>
       <c r="B273">
-        <v>23.005865948501658</v>
+        <v>129.00401757883958</v>
       </c>
       <c r="C273">
-        <v>24.633206666104332</v>
+        <v>159.99420199723582</v>
       </c>
       <c r="D273">
-        <v>7.4924843610753511</v>
+        <v>6.5426223285964467</v>
       </c>
       <c r="E273">
-        <v>10.116846532695408</v>
+        <v>8.4838627836630423</v>
       </c>
       <c r="F273">
-        <v>15.316720573014347</v>
+        <v>12.668770421294187</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>1.6257828960714458e-75</v>
+        <v>0</v>
       </c>
       <c r="B274">
-        <v>6.3609696906912887e-90</v>
+        <v>0</v>
       </c>
       <c r="C274">
-        <v>1.039341142754459e-99</v>
+        <v>0</v>
       </c>
       <c r="D274">
-        <v>1.8232650377624334e-13</v>
+        <v>6.7362461779264062e-11</v>
       </c>
       <c r="E274">
-        <v>1.0670428304015143e-22</v>
+        <v>2.9386729623924004e-17</v>
       </c>
       <c r="F274">
-        <v>1.5806933272200894e-46</v>
+        <v>3.7456264584874012e-36</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.6630097785706982</v>
+        <v>0.94370244373244017</v>
       </c>
       <c r="B275">
-        <v>0.63530048808875306</v>
+        <v>0.92403427644542835</v>
       </c>
       <c r="C275">
-        <v>0.56746576753541855</v>
+        <v>0.91527266243342487</v>
       </c>
       <c r="D275">
-        <v>0.19706946138437825</v>
+        <v>0.030337324808147451</v>
       </c>
       <c r="E275">
-        <v>0.24617114298686799</v>
+        <v>0.047446794862242403</v>
       </c>
       <c r="F275">
-        <v>0.33426168590276539</v>
+        <v>0.062018316627138817</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>0.80293053861562191</v>
+        <v>0.96966267519185267</v>
       </c>
       <c r="B276">
-        <v>0.75382885701313207</v>
+        <v>0.95255320513775765</v>
       </c>
       <c r="C276">
-        <v>0.66573831409723472</v>
+        <v>0.93798168337286114</v>
       </c>
       <c r="D276">
-        <v>0.33699022142930185</v>
+        <v>0.056297556267559862</v>
       </c>
       <c r="E276">
-        <v>0.36469951191124689</v>
+        <v>0.075965723554571679</v>
       </c>
       <c r="F276">
-        <v>0.43253423246458156</v>
+        <v>0.08472733756657512</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B277">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C277">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D277">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E277">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F277">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B278">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C278">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D278">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E278">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F278">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="279">
@@ -5258,162 +5420,162 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.48569446722048404</v>
+        <v>0.91523886315620806</v>
       </c>
       <c r="B281">
-        <v>0.516087087283426</v>
+        <v>0.90403466123623688</v>
       </c>
       <c r="C281">
-        <v>0.52362204081632657</v>
+        <v>0.90857018365583109</v>
       </c>
       <c r="D281">
-        <v>0.51430553277951596</v>
+        <v>0.084761136843791773</v>
       </c>
       <c r="E281">
-        <v>0.48391291271657411</v>
+        <v>0.095965338763763106</v>
       </c>
       <c r="F281">
-        <v>0.47637795918367337</v>
+        <v>0.091429816344168788</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.042308851343141766</v>
+        <v>0.0095967845152431976</v>
       </c>
       <c r="B282">
-        <v>0.032862202193121137</v>
+        <v>0.0086450736003063772</v>
       </c>
       <c r="C282">
-        <v>0.025374220703501555</v>
+        <v>0.0061594000753888538</v>
       </c>
       <c r="D282">
-        <v>0.042308851343141766</v>
+        <v>0.0095967845152431976</v>
       </c>
       <c r="E282">
-        <v>0.032862202193121137</v>
+        <v>0.0086450736003063772</v>
       </c>
       <c r="F282">
-        <v>0.025374220703501555</v>
+        <v>0.0061594000753888538</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>11.479736551609662</v>
+        <v>95.369325184125429</v>
       </c>
       <c r="B283">
-        <v>15.704580120666888</v>
+        <v>104.57223420332689</v>
       </c>
       <c r="C283">
-        <v>20.635985117922008</v>
+        <v>147.509525690044</v>
       </c>
       <c r="D283">
-        <v>12.155979575249908</v>
+        <v>8.8322434154023295</v>
       </c>
       <c r="E283">
-        <v>14.725516868065187</v>
+        <v>11.100580885784725</v>
       </c>
       <c r="F283">
-        <v>18.774092207605605</v>
+        <v>14.843948310728406</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>2.622947973014978e-28</v>
+        <v>0</v>
       </c>
       <c r="B284">
-        <v>1.5518807467769395e-48</v>
+        <v>0</v>
       </c>
       <c r="C284">
-        <v>6.3735246859020691e-76</v>
+        <v>0</v>
       </c>
       <c r="D284">
-        <v>2.8299119061053446e-31</v>
+        <v>1.4568176755179936e-18</v>
       </c>
       <c r="E284">
-        <v>1.612543856229691e-43</v>
+        <v>2.948433485252813e-28</v>
       </c>
       <c r="F284">
-        <v>3.0752734589514197e-65</v>
+        <v>1.1277014783235959e-48</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.40264259217520076</v>
+        <v>0.8964243332560532</v>
       </c>
       <c r="B285">
-        <v>0.45157889517675603</v>
+        <v>0.88708596394250772</v>
       </c>
       <c r="C285">
-        <v>0.47381268555524936</v>
+        <v>0.89649465807730522</v>
       </c>
       <c r="D285">
-        <v>0.43125365773423269</v>
+        <v>0.065946606943636896</v>
       </c>
       <c r="E285">
-        <v>0.41940472060990414</v>
+        <v>0.079016641470033983</v>
       </c>
       <c r="F285">
-        <v>0.42656860392259616</v>
+        <v>0.07935429076564296</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.56874634226576737</v>
+        <v>0.93405339305636292</v>
       </c>
       <c r="B286">
-        <v>0.58059527939009592</v>
+        <v>0.92098335852996605</v>
       </c>
       <c r="C286">
-        <v>0.57343139607740379</v>
+        <v>0.92064570923435696</v>
       </c>
       <c r="D286">
-        <v>0.59735740782479929</v>
+        <v>0.10357566674394665</v>
       </c>
       <c r="E286">
-        <v>0.54842110482324413</v>
+        <v>0.11291403605749223</v>
       </c>
       <c r="F286">
-        <v>0.52618731444475053</v>
+        <v>0.10350534192269462</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B287">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C287">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D287">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E287">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F287">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B288">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C288">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D288">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E288">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F288">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="289">
@@ -5438,162 +5600,162 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.78133537418635601</v>
+        <v>0.96462013953365722</v>
       </c>
       <c r="B291">
-        <v>0.78934824016563154</v>
+        <v>0.95823210268529024</v>
       </c>
       <c r="C291">
-        <v>0.8597759183673469</v>
+        <v>0.97340596243422262</v>
       </c>
       <c r="D291">
-        <v>0.21866462581364404</v>
+        <v>0.035379860466342852</v>
       </c>
       <c r="E291">
-        <v>0.21065175983436854</v>
+        <v>0.041767897314709687</v>
       </c>
       <c r="F291">
-        <v>0.14022408163265307</v>
+        <v>0.026594037565777356</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.035746918917299642</v>
+        <v>0.0064026952072593875</v>
       </c>
       <c r="B292">
-        <v>0.027296118865392363</v>
+        <v>0.0059829606293503798</v>
       </c>
       <c r="C292">
-        <v>0.018314321232748093</v>
+        <v>0.0036926365357057237</v>
       </c>
       <c r="D292">
-        <v>0.035746918917299642</v>
+        <v>0.0064026952072593875</v>
       </c>
       <c r="E292">
-        <v>0.027296118865392363</v>
+        <v>0.0059829606293503798</v>
       </c>
       <c r="F292">
-        <v>0.018314321232748093</v>
+        <v>0.0036926365357057237</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>21.857418704923141</v>
+        <v>150.65845059123995</v>
       </c>
       <c r="B293">
-        <v>28.917966105665446</v>
+        <v>160.16018858364669</v>
       </c>
       <c r="C293">
-        <v>46.945551923047503</v>
+        <v>263.6073041638225</v>
       </c>
       <c r="D293">
-        <v>6.1170202198271637</v>
+        <v>5.5257761491175001</v>
       </c>
       <c r="E293">
-        <v>7.7172788143681963</v>
+        <v>6.9811419299352435</v>
       </c>
       <c r="F293">
-        <v>7.6565262698306524</v>
+        <v>7.2019104259593201</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>4.3059743001986998e-83</v>
+        <v>0</v>
       </c>
       <c r="B294">
-        <v>9.28133680316478e-126</v>
+        <v>0</v>
       </c>
       <c r="C294">
-        <v>4.1526586037295009e-230</v>
+        <v>0</v>
       </c>
       <c r="D294">
-        <v>1.5030851048051163e-09</v>
+        <v>3.4698441766249776e-08</v>
       </c>
       <c r="E294">
-        <v>3.6125516506076093e-14</v>
+        <v>3.3661728102894551e-12</v>
       </c>
       <c r="F294">
-        <v>5.6171549313478178e-14</v>
+        <v>6.9506014075267829e-13</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.71116451043269635</v>
+        <v>0.95206763299073971</v>
       </c>
       <c r="B295">
-        <v>0.73576621698935729</v>
+        <v>0.94650248726321162</v>
       </c>
       <c r="C295">
-        <v>0.82382507899746804</v>
+        <v>0.96616653547813247</v>
       </c>
       <c r="D295">
-        <v>0.14849376205998432</v>
+        <v>0.0228273539234253</v>
       </c>
       <c r="E295">
-        <v>0.15706973665809423</v>
+        <v>0.030038281892631039</v>
       </c>
       <c r="F295">
-        <v>0.10427324226277421</v>
+        <v>0.019354610609687257</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.85150623794001568</v>
+        <v>0.97717264607657472</v>
       </c>
       <c r="B296">
-        <v>0.84293026334190579</v>
+        <v>0.96996171810736886</v>
       </c>
       <c r="C296">
-        <v>0.89572675773722576</v>
+        <v>0.98064538939031276</v>
       </c>
       <c r="D296">
-        <v>0.28883548956730376</v>
+        <v>0.047932367009260402</v>
       </c>
       <c r="E296">
-        <v>0.26423378301064282</v>
+        <v>0.053497512736788336</v>
       </c>
       <c r="F296">
-        <v>0.17617492100253193</v>
+        <v>0.03383346452186746</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B297">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="C297">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="D297">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="E297">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="F297">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B298">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="C298">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="D298">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="E298">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="F298">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="299">
@@ -5618,66 +5780,66 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.6547890953352018</v>
+        <v>0.93565969127785653</v>
       </c>
       <c r="B301">
-        <v>0.3452109046647982</v>
+        <v>0.064340308722143566</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.016892921881722037</v>
+        <v>0.0037802909100923513</v>
       </c>
       <c r="B302">
-        <v>0.016892921881722037</v>
+        <v>0.0037802909100923513</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>38.761150967238926</v>
+        <v>247.50997040463182</v>
       </c>
       <c r="B303">
-        <v>20.435239509294881</v>
+        <v>17.019935833608042</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>1.7267700188388675e-184</v>
+        <v>0</v>
       </c>
       <c r="B304">
-        <v>9.3711762471792928e-75</v>
+        <v>5.8260938096231219e-63</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.62162844944832329</v>
+        <v>0.92824841761153165</v>
       </c>
       <c r="B305">
-        <v>0.31205025877791964</v>
+        <v>0.056929035055818693</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.6879497412220803</v>
+        <v>0.94307096494418141</v>
       </c>
       <c r="B306">
-        <v>0.37837155055167676</v>
+        <v>0.071751582388468446</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B307">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B308">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="309">
@@ -5690,66 +5852,66 @@
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.51678112739601301</v>
+        <v>0.90883929837442634</v>
       </c>
       <c r="B311">
-        <v>0.48321887260398705</v>
+        <v>0.091160701625573631</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.017585393000314739</v>
+        <v>0.0043382808143880743</v>
       </c>
       <c r="B312">
-        <v>0.017585393000314739</v>
+        <v>0.0043382808143880743</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>29.386953557805832</v>
+        <v>209.49296213380794</v>
       </c>
       <c r="B313">
-        <v>27.478423291156389</v>
+        <v>21.013093786652924</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>1.2978201561630359e-128</v>
+        <v>0</v>
       </c>
       <c r="B314">
-        <v>5.4408937302011929e-117</v>
+        <v>1.7032790370504132e-93</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.48226116725247004</v>
+        <v>0.90033408353210853</v>
       </c>
       <c r="B315">
-        <v>0.44869891246044408</v>
+        <v>0.082655486783255766</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.55130108753955598</v>
+        <v>0.91734451321674415</v>
       </c>
       <c r="B316">
-        <v>0.51773883274753008</v>
+        <v>0.099665916467891497</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B317">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B318">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="319">
@@ -5762,66 +5924,66 @@
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.82842977726878519</v>
+        <v>0.96797705253712762</v>
       </c>
       <c r="B321">
-        <v>0.17157022273121475</v>
+        <v>0.032022947462872438</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.013476972852221271</v>
+        <v>0.0027319402292047957</v>
       </c>
       <c r="B322">
-        <v>0.013476972852221271</v>
+        <v>0.0027319402292047957</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>61.470018998535238</v>
+        <v>354.31853237099671</v>
       </c>
       <c r="B323">
-        <v>12.730620192867464</v>
+        <v>11.721686704761316</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>2.839184617533264e-302</v>
+        <v>0</v>
       </c>
       <c r="B324">
-        <v>6.9447559824630126e-34</v>
+        <v>2.8673455638832163e-31</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.8019746070200473</v>
+        <v>0.96262107407932573</v>
       </c>
       <c r="B325">
-        <v>0.14511505248247691</v>
+        <v>0.026666969005070519</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.85488494751752309</v>
+        <v>0.97333303099492952</v>
       </c>
       <c r="B326">
-        <v>0.19802539297995259</v>
+        <v>0.037378925920674357</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
       <c r="B327">
-        <v>785.00759493670887</v>
+        <v>4398.0013627072449</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
       <c r="B328">
-        <v>1.9629905423737279</v>
+        <v>1.9605035280588552</v>
       </c>
     </row>
     <row r="329">
